--- a/dados-01-2004---03-2020.xlsx
+++ b/dados-01-2004---03-2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CafeFilho\OneDrive\ACADÊMICO\MESTRADO\TCC\DADOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E064E2B-E854-4AFB-AB74-268E3378289E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6067CC20-4D19-43E4-8D50-AE85F3C969E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{7864428C-7F96-45D0-9764-599FB8CC30BD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="169">
   <si>
     <t>data</t>
   </si>
@@ -539,13 +539,10 @@
     <t xml:space="preserve"> 5.70</t>
   </si>
   <si>
-    <t>5.90 .</t>
-  </si>
-  <si>
     <t>5.40</t>
   </si>
   <si>
-    <t>5.20 .</t>
+    <t>5.90</t>
   </si>
 </sst>
 </file>
@@ -593,11 +590,11 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -915,20 +912,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC1482FA-E105-4C22-A791-624FAF71C085}">
   <dimension ref="A1:B785"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A773" workbookViewId="0">
-      <selection activeCell="B723" activeCellId="32" sqref="B33 B34 B35 B36 B37 B40 B41 B53 B46 B55 B71 B114 B115 B108 B147 B158 B157 B156 B184 B185 B183 B182 B207 B208 B249 B250 B281 B340 B719 B720 B721 B722 B723"/>
+    <sheetView tabSelected="1" topLeftCell="A775" workbookViewId="0">
+      <selection activeCell="F788" sqref="F788"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -936,7 +934,7 @@
       <c r="A2" s="1">
         <v>37994</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -944,7 +942,7 @@
       <c r="A3" s="1">
         <v>38001</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -952,7 +950,7 @@
       <c r="A4" s="1">
         <v>38008</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -960,7 +958,7 @@
       <c r="A5" s="1">
         <v>38015</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -968,7 +966,7 @@
       <c r="A6" s="1">
         <v>38022</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -976,7 +974,7 @@
       <c r="A7" s="1">
         <v>38029</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -984,7 +982,7 @@
       <c r="A8" s="1">
         <v>38036</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -992,7 +990,7 @@
       <c r="A9" s="1">
         <v>38043</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1000,7 +998,7 @@
       <c r="A10" s="1">
         <v>38050</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1008,7 +1006,7 @@
       <c r="A11" s="1">
         <v>38057</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1016,7 +1014,7 @@
       <c r="A12" s="1">
         <v>38064</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1024,7 +1022,7 @@
       <c r="A13" s="1">
         <v>38071</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1032,7 +1030,7 @@
       <c r="A14" s="1">
         <v>38078</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1040,7 +1038,7 @@
       <c r="A15" s="1">
         <v>38085</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1048,7 +1046,7 @@
       <c r="A16" s="1">
         <v>38092</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1056,7 +1054,7 @@
       <c r="A17" s="1">
         <v>38099</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1064,7 +1062,7 @@
       <c r="A18" s="1">
         <v>38113</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1072,7 +1070,7 @@
       <c r="A19" s="1">
         <v>38120</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1080,7 +1078,7 @@
       <c r="A20" s="1">
         <v>38127</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1088,7 +1086,7 @@
       <c r="A21" s="1">
         <v>38134</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1096,7 +1094,7 @@
       <c r="A22" s="1">
         <v>38141</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1104,7 +1102,7 @@
       <c r="A23" s="1">
         <v>38147</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1112,7 +1110,7 @@
       <c r="A24" s="1">
         <v>38155</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1120,7 +1118,7 @@
       <c r="A25" s="1">
         <v>38162</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1128,7 +1126,7 @@
       <c r="A26" s="1">
         <v>38169</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1136,7 +1134,7 @@
       <c r="A27" s="1">
         <v>38169</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1144,7 +1142,7 @@
       <c r="A28" s="1">
         <v>38176</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1152,7 +1150,7 @@
       <c r="A29" s="1">
         <v>38183</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1160,7 +1158,7 @@
       <c r="A30" s="1">
         <v>38190</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1168,7 +1166,7 @@
       <c r="A31" s="1">
         <v>38197</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1176,7 +1174,7 @@
       <c r="A32" s="1">
         <v>38204</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1224,7 +1222,7 @@
       <c r="A38" s="1">
         <v>38246</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1232,7 +1230,7 @@
       <c r="A39" s="1">
         <v>38253</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1256,7 +1254,7 @@
       <c r="A42" s="1">
         <v>38274</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1264,7 +1262,7 @@
       <c r="A43" s="1">
         <v>38281</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1272,7 +1270,7 @@
       <c r="A44" s="1">
         <v>38288</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1280,7 +1278,7 @@
       <c r="A45" s="1">
         <v>38295</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1296,7 +1294,7 @@
       <c r="A47" s="1">
         <v>38309</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1304,7 +1302,7 @@
       <c r="A48" s="1">
         <v>38316</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1312,7 +1310,7 @@
       <c r="A49" s="1">
         <v>38323</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1320,7 +1318,7 @@
       <c r="A50" s="1">
         <v>38330</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1328,7 +1326,7 @@
       <c r="A51" s="1">
         <v>38337</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1336,7 +1334,7 @@
       <c r="A52" s="1">
         <v>38344</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1352,7 +1350,7 @@
       <c r="A54" s="1">
         <v>38358</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1368,7 +1366,7 @@
       <c r="A56" s="1">
         <v>38365</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1376,7 +1374,7 @@
       <c r="A57" s="1">
         <v>38372</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1384,7 +1382,7 @@
       <c r="A58" s="1">
         <v>38379</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1392,7 +1390,7 @@
       <c r="A59" s="1">
         <v>38386</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1400,7 +1398,7 @@
       <c r="A60" s="1">
         <v>38393</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1408,7 +1406,7 @@
       <c r="A61" s="1">
         <v>38400</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1416,7 +1414,7 @@
       <c r="A62" s="1">
         <v>38407</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1424,7 +1422,7 @@
       <c r="A63" s="1">
         <v>38414</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1432,7 +1430,7 @@
       <c r="A64" s="1">
         <v>38421</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1440,7 +1438,7 @@
       <c r="A65" s="1">
         <v>38427</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="3" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1448,7 +1446,7 @@
       <c r="A66" s="1">
         <v>38428</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="3" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1456,7 +1454,7 @@
       <c r="A67" s="1">
         <v>38442</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1464,7 +1462,7 @@
       <c r="A68" s="1">
         <v>38449</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1472,7 +1470,7 @@
       <c r="A69" s="1">
         <v>38456</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1480,7 +1478,7 @@
       <c r="A70" s="1">
         <v>38463</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1496,7 +1494,7 @@
       <c r="A72" s="1">
         <v>38477</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1504,7 +1502,7 @@
       <c r="A73" s="1">
         <v>38484</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1512,7 +1510,7 @@
       <c r="A74" s="1">
         <v>38491</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1520,7 +1518,7 @@
       <c r="A75" s="1">
         <v>38498</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1528,7 +1526,7 @@
       <c r="A76" s="1">
         <v>38505</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1536,7 +1534,7 @@
       <c r="A77" s="1">
         <v>38512</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1544,7 +1542,7 @@
       <c r="A78" s="1">
         <v>38519</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1552,7 +1550,7 @@
       <c r="A79" s="1">
         <v>38526</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="3" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1560,7 +1558,7 @@
       <c r="A80" s="1">
         <v>38533</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="3" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1568,7 +1566,7 @@
       <c r="A81" s="1">
         <v>38540</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1576,7 +1574,7 @@
       <c r="A82" s="1">
         <v>38547</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1584,7 +1582,7 @@
       <c r="A83" s="1">
         <v>38554</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1592,7 +1590,7 @@
       <c r="A84" s="1">
         <v>38561</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1600,7 +1598,7 @@
       <c r="A85" s="1">
         <v>38568</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1608,7 +1606,7 @@
       <c r="A86" s="1">
         <v>38575</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1616,7 +1614,7 @@
       <c r="A87" s="1">
         <v>38582</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1624,7 +1622,7 @@
       <c r="A88" s="1">
         <v>38589</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1632,7 +1630,7 @@
       <c r="A89" s="1">
         <v>38596</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1640,7 +1638,7 @@
       <c r="A90" s="1">
         <v>38603</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1648,7 +1646,7 @@
       <c r="A91" s="1">
         <v>38610</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1656,7 +1654,7 @@
       <c r="A92" s="1">
         <v>38617</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" s="3" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1664,7 +1662,7 @@
       <c r="A93" s="1">
         <v>38624</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1672,7 +1670,7 @@
       <c r="A94" s="1">
         <v>38631</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1680,7 +1678,7 @@
       <c r="A95" s="1">
         <v>38638</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1688,7 +1686,7 @@
       <c r="A96" s="1">
         <v>38645</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1696,7 +1694,7 @@
       <c r="A97" s="1">
         <v>38652</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1704,7 +1702,7 @@
       <c r="A98" s="1">
         <v>38659</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1712,7 +1710,7 @@
       <c r="A99" s="1">
         <v>38666</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="3" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1720,7 +1718,7 @@
       <c r="A100" s="1">
         <v>38673</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1728,7 +1726,7 @@
       <c r="A101" s="1">
         <v>38680</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1736,7 +1734,7 @@
       <c r="A102" s="1">
         <v>38687</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1744,7 +1742,7 @@
       <c r="A103" s="1">
         <v>38693</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1752,7 +1750,7 @@
       <c r="A104" s="1">
         <v>38701</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1760,7 +1758,7 @@
       <c r="A105" s="1">
         <v>38708</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1768,7 +1766,7 @@
       <c r="A106" s="1">
         <v>38715</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1776,7 +1774,7 @@
       <c r="A107" s="1">
         <v>38722</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1792,7 +1790,7 @@
       <c r="A109" s="1">
         <v>38743</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1800,7 +1798,7 @@
       <c r="A110" s="1">
         <v>38750</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1808,7 +1806,7 @@
       <c r="A111" s="1">
         <v>38757</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1816,7 +1814,7 @@
       <c r="A112" s="1">
         <v>38764</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1824,7 +1822,7 @@
       <c r="A113" s="1">
         <v>38771</v>
       </c>
-      <c r="B113" s="2" t="s">
+      <c r="B113" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1848,7 +1846,7 @@
       <c r="A116" s="1">
         <v>38799</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1856,7 +1854,7 @@
       <c r="A117" s="1">
         <v>38806</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1864,7 +1862,7 @@
       <c r="A118" s="1">
         <v>38813</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1872,7 +1870,7 @@
       <c r="A119" s="1">
         <v>38819</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1880,7 +1878,7 @@
       <c r="A120" s="1">
         <v>38826</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1888,7 +1886,7 @@
       <c r="A121" s="1">
         <v>38834</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1896,7 +1894,7 @@
       <c r="A122" s="1">
         <v>38841</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1904,7 +1902,7 @@
       <c r="A123" s="1">
         <v>38848</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1912,7 +1910,7 @@
       <c r="A124" s="1">
         <v>38855</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1920,7 +1918,7 @@
       <c r="A125" s="1">
         <v>38862</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1928,7 +1926,7 @@
       <c r="A126" s="1">
         <v>38869</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1936,7 +1934,7 @@
       <c r="A127" s="1">
         <v>38876</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1944,7 +1942,7 @@
       <c r="A128" s="1">
         <v>38882</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1952,7 +1950,7 @@
       <c r="A129" s="1">
         <v>38889</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1960,7 +1958,7 @@
       <c r="A130" s="1">
         <v>38897</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1968,7 +1966,7 @@
       <c r="A131" s="1">
         <v>38904</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1976,7 +1974,7 @@
       <c r="A132" s="1">
         <v>38911</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1984,7 +1982,7 @@
       <c r="A133" s="1">
         <v>38918</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1992,7 +1990,7 @@
       <c r="A134" s="1">
         <v>38925</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2000,7 +1998,7 @@
       <c r="A135" s="1">
         <v>38932</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2008,7 +2006,7 @@
       <c r="A136" s="1">
         <v>38939</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2016,7 +2014,7 @@
       <c r="A137" s="1">
         <v>38945</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" s="3" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2024,7 +2022,7 @@
       <c r="A138" s="1">
         <v>38953</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2032,7 +2030,7 @@
       <c r="A139" s="1">
         <v>38960</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2040,7 +2038,7 @@
       <c r="A140" s="1">
         <v>38966</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2048,7 +2046,7 @@
       <c r="A141" s="1">
         <v>38974</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2056,7 +2054,7 @@
       <c r="A142" s="1">
         <v>38981</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2064,7 +2062,7 @@
       <c r="A143" s="1">
         <v>38988</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" s="3" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2072,7 +2070,7 @@
       <c r="A144" s="1">
         <v>38995</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2080,7 +2078,7 @@
       <c r="A145" s="1">
         <v>39001</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2088,7 +2086,7 @@
       <c r="A146" s="1">
         <v>39009</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2104,7 +2102,7 @@
       <c r="A148" s="1">
         <v>39022</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" s="3" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2112,7 +2110,7 @@
       <c r="A149" s="1">
         <v>39030</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" s="3" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2120,7 +2118,7 @@
       <c r="A150" s="1">
         <v>39044</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2128,7 +2126,7 @@
       <c r="A151" s="1">
         <v>39051</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2136,7 +2134,7 @@
       <c r="A152" s="1">
         <v>39058</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2144,7 +2142,7 @@
       <c r="A153" s="1">
         <v>39065</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2152,7 +2150,7 @@
       <c r="A154" s="1">
         <v>39072</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2160,7 +2158,7 @@
       <c r="A155" s="1">
         <v>39079</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" s="3" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2192,7 +2190,7 @@
       <c r="A159" s="1">
         <v>39107</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2200,7 +2198,7 @@
       <c r="A160" s="1">
         <v>39114</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2208,7 +2206,7 @@
       <c r="A161" s="1">
         <v>39121</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2216,7 +2214,7 @@
       <c r="A162" s="1">
         <v>39128</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" s="3" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2224,7 +2222,7 @@
       <c r="A163" s="1">
         <v>39135</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" s="3" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2232,7 +2230,7 @@
       <c r="A164" s="1">
         <v>39142</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2240,7 +2238,7 @@
       <c r="A165" s="1">
         <v>39149</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" s="3" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2248,7 +2246,7 @@
       <c r="A166" s="1">
         <v>39156</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2256,7 +2254,7 @@
       <c r="A167" s="1">
         <v>39163</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" s="3" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2264,7 +2262,7 @@
       <c r="A168" s="1">
         <v>39170</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2272,7 +2270,7 @@
       <c r="A169" s="1">
         <v>39176</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2280,7 +2278,7 @@
       <c r="A170" s="1">
         <v>39184</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2288,7 +2286,7 @@
       <c r="A171" s="1">
         <v>39191</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2296,7 +2294,7 @@
       <c r="A172" s="1">
         <v>39198</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2304,7 +2302,7 @@
       <c r="A173" s="1">
         <v>39205</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2312,7 +2310,7 @@
       <c r="A174" s="1">
         <v>39212</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" s="3" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2320,7 +2318,7 @@
       <c r="A175" s="1">
         <v>39219</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" s="3" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2328,7 +2326,7 @@
       <c r="A176" s="1">
         <v>39226</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B176" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2336,7 +2334,7 @@
       <c r="A177" s="1">
         <v>39233</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2344,7 +2342,7 @@
       <c r="A178" s="1">
         <v>39239</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2352,7 +2350,7 @@
       <c r="A179" s="1">
         <v>39247</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2360,7 +2358,7 @@
       <c r="A180" s="1">
         <v>39254</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2368,7 +2366,7 @@
       <c r="A181" s="1">
         <v>39261</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B181" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2408,7 +2406,7 @@
       <c r="A186" s="1">
         <v>39296</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B186" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2416,7 +2414,7 @@
       <c r="A187" s="1">
         <v>39303</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2424,7 +2422,7 @@
       <c r="A188" s="1">
         <v>39310</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2432,7 +2430,7 @@
       <c r="A189" s="1">
         <v>39317</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2440,7 +2438,7 @@
       <c r="A190" s="1">
         <v>39324</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2448,7 +2446,7 @@
       <c r="A191" s="1">
         <v>39331</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" s="3" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2456,7 +2454,7 @@
       <c r="A192" s="1">
         <v>39338</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2464,7 +2462,7 @@
       <c r="A193" s="1">
         <v>39345</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2472,7 +2470,7 @@
       <c r="A194" s="1">
         <v>39352</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2480,7 +2478,7 @@
       <c r="A195" s="1">
         <v>39359</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2488,7 +2486,7 @@
       <c r="A196" s="1">
         <v>39366</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2496,7 +2494,7 @@
       <c r="A197" s="1">
         <v>39373</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B197" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2504,7 +2502,7 @@
       <c r="A198" s="1">
         <v>39380</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B198" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2512,7 +2510,7 @@
       <c r="A199" s="1">
         <v>39387</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B199" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2520,7 +2518,7 @@
       <c r="A200" s="1">
         <v>39394</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" s="3" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2528,7 +2526,7 @@
       <c r="A201" s="1">
         <v>39400</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B201" s="3" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2536,7 +2534,7 @@
       <c r="A202" s="1">
         <v>39408</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B202" s="3" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2544,7 +2542,7 @@
       <c r="A203" s="1">
         <v>39416</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B203" s="3" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2552,7 +2550,7 @@
       <c r="A204" s="1">
         <v>39422</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B204" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2560,7 +2558,7 @@
       <c r="A205" s="1">
         <v>39429</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2568,7 +2566,7 @@
       <c r="A206" s="1">
         <v>39436</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B206" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2592,7 +2590,7 @@
       <c r="A209" s="1">
         <v>39457</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B209" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2600,7 +2598,7 @@
       <c r="A210" s="1">
         <v>39464</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B210" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2608,7 +2606,7 @@
       <c r="A211" s="1">
         <v>39471</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B211" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2616,7 +2614,7 @@
       <c r="A212" s="1">
         <v>39478</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B212" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2624,7 +2622,7 @@
       <c r="A213" s="1">
         <v>39485</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B213" s="3" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2632,7 +2630,7 @@
       <c r="A214" s="1">
         <v>39492</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B214" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2640,7 +2638,7 @@
       <c r="A215" s="1">
         <v>39499</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B215" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2648,7 +2646,7 @@
       <c r="A216" s="1">
         <v>39506</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B216" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2656,7 +2654,7 @@
       <c r="A217" s="1">
         <v>39513</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B217" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2664,7 +2662,7 @@
       <c r="A218" s="1">
         <v>39520</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B218" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2672,7 +2670,7 @@
       <c r="A219" s="1">
         <v>39526</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B219" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2680,7 +2678,7 @@
       <c r="A220" s="1">
         <v>39534</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B220" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2688,7 +2686,7 @@
       <c r="A221" s="1">
         <v>39541</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B221" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2696,7 +2694,7 @@
       <c r="A222" s="1">
         <v>39548</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="B222" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2704,7 +2702,7 @@
       <c r="A223" s="1">
         <v>39562</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B223" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2712,7 +2710,7 @@
       <c r="A224" s="1">
         <v>39568</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B224" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2720,7 +2718,7 @@
       <c r="A225" s="1">
         <v>39576</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B225" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2728,7 +2726,7 @@
       <c r="A226" s="1">
         <v>39583</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B226" s="3" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2736,7 +2734,7 @@
       <c r="A227" s="1">
         <v>39589</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B227" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2744,7 +2742,7 @@
       <c r="A228" s="1">
         <v>39597</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B228" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2752,7 +2750,7 @@
       <c r="A229" s="1">
         <v>39604</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B229" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2760,7 +2758,7 @@
       <c r="A230" s="1">
         <v>39618</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="B230" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2768,7 +2766,7 @@
       <c r="A231" s="1">
         <v>39625</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B231" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2776,7 +2774,7 @@
       <c r="A232" s="1">
         <v>39632</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B232" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2784,7 +2782,7 @@
       <c r="A233" s="1">
         <v>39639</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B233" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2792,7 +2790,7 @@
       <c r="A234" s="1">
         <v>39646</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B234" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2800,7 +2798,7 @@
       <c r="A235" s="1">
         <v>39653</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B235" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2808,7 +2806,7 @@
       <c r="A236" s="1">
         <v>39660</v>
       </c>
-      <c r="B236" s="2" t="s">
+      <c r="B236" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2816,7 +2814,7 @@
       <c r="A237" s="1">
         <v>39667</v>
       </c>
-      <c r="B237" s="2" t="s">
+      <c r="B237" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2824,7 +2822,7 @@
       <c r="A238" s="1">
         <v>39674</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="B238" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2832,7 +2830,7 @@
       <c r="A239" s="1">
         <v>39681</v>
       </c>
-      <c r="B239" s="2" t="s">
+      <c r="B239" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2840,7 +2838,7 @@
       <c r="A240" s="1">
         <v>39688</v>
       </c>
-      <c r="B240" s="2" t="s">
+      <c r="B240" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2848,7 +2846,7 @@
       <c r="A241" s="1">
         <v>39695</v>
       </c>
-      <c r="B241" s="2" t="s">
+      <c r="B241" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2856,7 +2854,7 @@
       <c r="A242" s="1">
         <v>39702</v>
       </c>
-      <c r="B242" s="2" t="s">
+      <c r="B242" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2864,7 +2862,7 @@
       <c r="A243" s="1">
         <v>39709</v>
       </c>
-      <c r="B243" s="2" t="s">
+      <c r="B243" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2872,7 +2870,7 @@
       <c r="A244" s="1">
         <v>39716</v>
       </c>
-      <c r="B244" s="2" t="s">
+      <c r="B244" s="3" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2880,7 +2878,7 @@
       <c r="A245" s="1">
         <v>39723</v>
       </c>
-      <c r="B245" s="2" t="s">
+      <c r="B245" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2888,7 +2886,7 @@
       <c r="A246" s="1">
         <v>39730</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="B246" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2896,7 +2894,7 @@
       <c r="A247" s="1">
         <v>39737</v>
       </c>
-      <c r="B247" s="2" t="s">
+      <c r="B247" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2904,7 +2902,7 @@
       <c r="A248" s="1">
         <v>39744</v>
       </c>
-      <c r="B248" s="2" t="s">
+      <c r="B248" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2928,7 +2926,7 @@
       <c r="A251" s="1">
         <v>39765</v>
       </c>
-      <c r="B251" s="2" t="s">
+      <c r="B251" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2936,7 +2934,7 @@
       <c r="A252" s="1">
         <v>39772</v>
       </c>
-      <c r="B252" s="2" t="s">
+      <c r="B252" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2944,7 +2942,7 @@
       <c r="A253" s="1">
         <v>39779</v>
       </c>
-      <c r="B253" s="2" t="s">
+      <c r="B253" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2952,7 +2950,7 @@
       <c r="A254" s="1">
         <v>39786</v>
       </c>
-      <c r="B254" s="2" t="s">
+      <c r="B254" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2960,7 +2958,7 @@
       <c r="A255" s="1">
         <v>39793</v>
       </c>
-      <c r="B255" s="2" t="s">
+      <c r="B255" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2968,7 +2966,7 @@
       <c r="A256" s="1">
         <v>39800</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="B256" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2976,7 +2974,7 @@
       <c r="A257" s="1">
         <v>39813</v>
       </c>
-      <c r="B257" s="2" t="s">
+      <c r="B257" s="3" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2984,7 +2982,7 @@
       <c r="A258" s="1">
         <v>39821</v>
       </c>
-      <c r="B258" s="2" t="s">
+      <c r="B258" s="3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2992,7 +2990,7 @@
       <c r="A259" s="1">
         <v>39828</v>
       </c>
-      <c r="B259" s="2" t="s">
+      <c r="B259" s="3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3000,7 +2998,7 @@
       <c r="A260" s="1">
         <v>39835</v>
       </c>
-      <c r="B260" s="2" t="s">
+      <c r="B260" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3008,7 +3006,7 @@
       <c r="A261" s="1">
         <v>39842</v>
       </c>
-      <c r="B261" s="2" t="s">
+      <c r="B261" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3016,7 +3014,7 @@
       <c r="A262" s="1">
         <v>39849</v>
       </c>
-      <c r="B262" s="2" t="s">
+      <c r="B262" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3024,7 +3022,7 @@
       <c r="A263" s="1">
         <v>39856</v>
       </c>
-      <c r="B263" s="2" t="s">
+      <c r="B263" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3032,7 +3030,7 @@
       <c r="A264" s="1">
         <v>39863</v>
       </c>
-      <c r="B264" s="2" t="s">
+      <c r="B264" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3040,7 +3038,7 @@
       <c r="A265" s="1">
         <v>39870</v>
       </c>
-      <c r="B265" s="2" t="s">
+      <c r="B265" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3048,7 +3046,7 @@
       <c r="A266" s="1">
         <v>39877</v>
       </c>
-      <c r="B266" s="2" t="s">
+      <c r="B266" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3056,7 +3054,7 @@
       <c r="A267" s="1">
         <v>39884</v>
       </c>
-      <c r="B267" s="2" t="s">
+      <c r="B267" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3064,7 +3062,7 @@
       <c r="A268" s="1">
         <v>39891</v>
       </c>
-      <c r="B268" s="2" t="s">
+      <c r="B268" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3072,7 +3070,7 @@
       <c r="A269" s="1">
         <v>39898</v>
       </c>
-      <c r="B269" s="2" t="s">
+      <c r="B269" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3080,7 +3078,7 @@
       <c r="A270" s="1">
         <v>39905</v>
       </c>
-      <c r="B270" s="2" t="s">
+      <c r="B270" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3088,7 +3086,7 @@
       <c r="A271" s="1">
         <v>39912</v>
       </c>
-      <c r="B271" s="2" t="s">
+      <c r="B271" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3096,7 +3094,7 @@
       <c r="A272" s="1">
         <v>39919</v>
       </c>
-      <c r="B272" s="2" t="s">
+      <c r="B272" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3104,7 +3102,7 @@
       <c r="A273" s="1">
         <v>39920</v>
       </c>
-      <c r="B273" s="2" t="s">
+      <c r="B273" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3112,7 +3110,7 @@
       <c r="A274" s="1">
         <v>39926</v>
       </c>
-      <c r="B274" s="2" t="s">
+      <c r="B274" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3120,7 +3118,7 @@
       <c r="A275" s="1">
         <v>39933</v>
       </c>
-      <c r="B275" s="2" t="s">
+      <c r="B275" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3128,7 +3126,7 @@
       <c r="A276" s="1">
         <v>39940</v>
       </c>
-      <c r="B276" s="2" t="s">
+      <c r="B276" s="3" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3136,7 +3134,7 @@
       <c r="A277" s="1">
         <v>39947</v>
       </c>
-      <c r="B277" s="2" t="s">
+      <c r="B277" s="3" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3144,7 +3142,7 @@
       <c r="A278" s="1">
         <v>39954</v>
       </c>
-      <c r="B278" s="2" t="s">
+      <c r="B278" s="3" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3152,7 +3150,7 @@
       <c r="A279" s="1">
         <v>39961</v>
       </c>
-      <c r="B279" s="2" t="s">
+      <c r="B279" s="3" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3160,7 +3158,7 @@
       <c r="A280" s="1">
         <v>39968</v>
       </c>
-      <c r="B280" s="2" t="s">
+      <c r="B280" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3176,7 +3174,7 @@
       <c r="A282" s="1">
         <v>39982</v>
       </c>
-      <c r="B282" s="2" t="s">
+      <c r="B282" s="3" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3184,7 +3182,7 @@
       <c r="A283" s="1">
         <v>39989</v>
       </c>
-      <c r="B283" s="2" t="s">
+      <c r="B283" s="3" t="s">
         <v>34</v>
       </c>
     </row>
@@ -3192,7 +3190,7 @@
       <c r="A284" s="1">
         <v>39996</v>
       </c>
-      <c r="B284" s="2" t="s">
+      <c r="B284" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3200,7 +3198,7 @@
       <c r="A285" s="1">
         <v>40003</v>
       </c>
-      <c r="B285" s="2" t="s">
+      <c r="B285" s="3" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3208,7 +3206,7 @@
       <c r="A286" s="1">
         <v>40010</v>
       </c>
-      <c r="B286" s="2" t="s">
+      <c r="B286" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3216,7 +3214,7 @@
       <c r="A287" s="1">
         <v>40017</v>
       </c>
-      <c r="B287" s="2" t="s">
+      <c r="B287" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3224,7 +3222,7 @@
       <c r="A288" s="1">
         <v>40024</v>
       </c>
-      <c r="B288" s="2" t="s">
+      <c r="B288" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3232,7 +3230,7 @@
       <c r="A289" s="1">
         <v>40031</v>
       </c>
-      <c r="B289" s="2" t="s">
+      <c r="B289" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3240,7 +3238,7 @@
       <c r="A290" s="1">
         <v>40038</v>
       </c>
-      <c r="B290" s="2" t="s">
+      <c r="B290" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3248,7 +3246,7 @@
       <c r="A291" s="1">
         <v>40045</v>
       </c>
-      <c r="B291" s="2" t="s">
+      <c r="B291" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3256,7 +3254,7 @@
       <c r="A292" s="1">
         <v>40052</v>
       </c>
-      <c r="B292" s="2" t="s">
+      <c r="B292" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3264,7 +3262,7 @@
       <c r="A293" s="1">
         <v>40059</v>
       </c>
-      <c r="B293" s="2" t="s">
+      <c r="B293" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3272,7 +3270,7 @@
       <c r="A294" s="1">
         <v>40066</v>
       </c>
-      <c r="B294" s="2" t="s">
+      <c r="B294" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3280,7 +3278,7 @@
       <c r="A295" s="1">
         <v>40073</v>
       </c>
-      <c r="B295" s="2" t="s">
+      <c r="B295" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3288,7 +3286,7 @@
       <c r="A296" s="1">
         <v>40080</v>
       </c>
-      <c r="B296" s="2" t="s">
+      <c r="B296" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3296,7 +3294,7 @@
       <c r="A297" s="1">
         <v>40087</v>
       </c>
-      <c r="B297" s="2" t="s">
+      <c r="B297" s="3" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3304,7 +3302,7 @@
       <c r="A298" s="1">
         <v>40094</v>
       </c>
-      <c r="B298" s="2" t="s">
+      <c r="B298" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3312,7 +3310,7 @@
       <c r="A299" s="1">
         <v>40101</v>
       </c>
-      <c r="B299" s="2" t="s">
+      <c r="B299" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3320,7 +3318,7 @@
       <c r="A300" s="1">
         <v>40108</v>
       </c>
-      <c r="B300" s="2" t="s">
+      <c r="B300" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3328,7 +3326,7 @@
       <c r="A301" s="1">
         <v>40115</v>
       </c>
-      <c r="B301" s="2" t="s">
+      <c r="B301" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3336,7 +3334,7 @@
       <c r="A302" s="1">
         <v>40122</v>
       </c>
-      <c r="B302" s="2" t="s">
+      <c r="B302" s="3" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3344,7 +3342,7 @@
       <c r="A303" s="1">
         <v>40129</v>
       </c>
-      <c r="B303" s="2" t="s">
+      <c r="B303" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3352,7 +3350,7 @@
       <c r="A304" s="1">
         <v>40136</v>
       </c>
-      <c r="B304" s="2" t="s">
+      <c r="B304" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3360,7 +3358,7 @@
       <c r="A305" s="1">
         <v>40143</v>
       </c>
-      <c r="B305" s="2" t="s">
+      <c r="B305" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3368,7 +3366,7 @@
       <c r="A306" s="1">
         <v>40150</v>
       </c>
-      <c r="B306" s="2" t="s">
+      <c r="B306" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3376,7 +3374,7 @@
       <c r="A307" s="1">
         <v>40157</v>
       </c>
-      <c r="B307" s="2" t="s">
+      <c r="B307" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3384,7 +3382,7 @@
       <c r="A308" s="1">
         <v>40164</v>
       </c>
-      <c r="B308" s="2" t="s">
+      <c r="B308" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3392,7 +3390,7 @@
       <c r="A309" s="1">
         <v>40177</v>
       </c>
-      <c r="B309" s="2" t="s">
+      <c r="B309" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3400,7 +3398,7 @@
       <c r="A310" s="1">
         <v>40185</v>
       </c>
-      <c r="B310" s="2" t="s">
+      <c r="B310" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3408,7 +3406,7 @@
       <c r="A311" s="1">
         <v>40192</v>
       </c>
-      <c r="B311" s="2" t="s">
+      <c r="B311" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3416,7 +3414,7 @@
       <c r="A312" s="1">
         <v>40199</v>
       </c>
-      <c r="B312" s="2" t="s">
+      <c r="B312" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3424,7 +3422,7 @@
       <c r="A313" s="1">
         <v>40206</v>
       </c>
-      <c r="B313" s="2" t="s">
+      <c r="B313" s="3" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3432,7 +3430,7 @@
       <c r="A314" s="1">
         <v>40213</v>
       </c>
-      <c r="B314" s="2" t="s">
+      <c r="B314" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3440,7 +3438,7 @@
       <c r="A315" s="1">
         <v>40220</v>
       </c>
-      <c r="B315" s="2" t="s">
+      <c r="B315" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3448,7 +3446,7 @@
       <c r="A316" s="1">
         <v>40227</v>
       </c>
-      <c r="B316" s="2" t="s">
+      <c r="B316" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3456,7 +3454,7 @@
       <c r="A317" s="1">
         <v>40234</v>
       </c>
-      <c r="B317" s="2" t="s">
+      <c r="B317" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3464,7 +3462,7 @@
       <c r="A318" s="1">
         <v>40241</v>
       </c>
-      <c r="B318" s="2" t="s">
+      <c r="B318" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3472,7 +3470,7 @@
       <c r="A319" s="1">
         <v>40248</v>
       </c>
-      <c r="B319" s="2" t="s">
+      <c r="B319" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3480,7 +3478,7 @@
       <c r="A320" s="1">
         <v>40255</v>
       </c>
-      <c r="B320" s="2" t="s">
+      <c r="B320" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3488,7 +3486,7 @@
       <c r="A321" s="1">
         <v>40262</v>
       </c>
-      <c r="B321" s="2" t="s">
+      <c r="B321" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3496,7 +3494,7 @@
       <c r="A322" s="1">
         <v>40268</v>
       </c>
-      <c r="B322" s="2" t="s">
+      <c r="B322" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3504,7 +3502,7 @@
       <c r="A323" s="1">
         <v>40276</v>
       </c>
-      <c r="B323" s="2" t="s">
+      <c r="B323" s="3" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3512,7 +3510,7 @@
       <c r="A324" s="1">
         <v>40283</v>
       </c>
-      <c r="B324" s="2" t="s">
+      <c r="B324" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3520,7 +3518,7 @@
       <c r="A325" s="1">
         <v>40290</v>
       </c>
-      <c r="B325" s="2" t="s">
+      <c r="B325" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3528,7 +3526,7 @@
       <c r="A326" s="1">
         <v>40297</v>
       </c>
-      <c r="B326" s="2" t="s">
+      <c r="B326" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3536,7 +3534,7 @@
       <c r="A327" s="1">
         <v>40304</v>
       </c>
-      <c r="B327" s="2" t="s">
+      <c r="B327" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3544,7 +3542,7 @@
       <c r="A328" s="1">
         <v>40311</v>
       </c>
-      <c r="B328" s="2" t="s">
+      <c r="B328" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3552,7 +3550,7 @@
       <c r="A329" s="1">
         <v>40318</v>
       </c>
-      <c r="B329" s="2" t="s">
+      <c r="B329" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3560,7 +3558,7 @@
       <c r="A330" s="1">
         <v>40325</v>
       </c>
-      <c r="B330" s="2" t="s">
+      <c r="B330" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3568,7 +3566,7 @@
       <c r="A331" s="1">
         <v>40332</v>
       </c>
-      <c r="B331" s="2" t="s">
+      <c r="B331" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3576,7 +3574,7 @@
       <c r="A332" s="1">
         <v>40339</v>
       </c>
-      <c r="B332" s="2" t="s">
+      <c r="B332" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3584,7 +3582,7 @@
       <c r="A333" s="1">
         <v>40346</v>
       </c>
-      <c r="B333" s="2" t="s">
+      <c r="B333" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3592,7 +3590,7 @@
       <c r="A334" s="1">
         <v>40353</v>
       </c>
-      <c r="B334" s="2" t="s">
+      <c r="B334" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3600,7 +3598,7 @@
       <c r="A335" s="1">
         <v>40360</v>
       </c>
-      <c r="B335" s="2" t="s">
+      <c r="B335" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3608,7 +3606,7 @@
       <c r="A336" s="1">
         <v>40366</v>
       </c>
-      <c r="B336" s="2" t="s">
+      <c r="B336" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3616,7 +3614,7 @@
       <c r="A337" s="1">
         <v>40374</v>
       </c>
-      <c r="B337" s="2" t="s">
+      <c r="B337" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3624,7 +3622,7 @@
       <c r="A338" s="1">
         <v>40381</v>
       </c>
-      <c r="B338" s="2" t="s">
+      <c r="B338" s="3" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3632,7 +3630,7 @@
       <c r="A339" s="1">
         <v>40388</v>
       </c>
-      <c r="B339" s="2" t="s">
+      <c r="B339" s="3" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3648,7 +3646,7 @@
       <c r="A341" s="1">
         <v>40402</v>
       </c>
-      <c r="B341" s="2" t="s">
+      <c r="B341" s="3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3656,7 +3654,7 @@
       <c r="A342" s="1">
         <v>40409</v>
       </c>
-      <c r="B342" s="2" t="s">
+      <c r="B342" s="3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3664,7 +3662,7 @@
       <c r="A343" s="1">
         <v>40416</v>
       </c>
-      <c r="B343" s="2" t="s">
+      <c r="B343" s="3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3672,7 +3670,7 @@
       <c r="A344" s="1">
         <v>40423</v>
       </c>
-      <c r="B344" s="2" t="s">
+      <c r="B344" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3680,7 +3678,7 @@
       <c r="A345" s="1">
         <v>40430</v>
       </c>
-      <c r="B345" s="2" t="s">
+      <c r="B345" s="3" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3688,7 +3686,7 @@
       <c r="A346" s="1">
         <v>40437</v>
       </c>
-      <c r="B346" s="2" t="s">
+      <c r="B346" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3696,7 +3694,7 @@
       <c r="A347" s="1">
         <v>40444</v>
       </c>
-      <c r="B347" s="2" t="s">
+      <c r="B347" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3704,7 +3702,7 @@
       <c r="A348" s="1">
         <v>40451</v>
       </c>
-      <c r="B348" s="2" t="s">
+      <c r="B348" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3712,7 +3710,7 @@
       <c r="A349" s="1">
         <v>40452</v>
       </c>
-      <c r="B349" s="2" t="s">
+      <c r="B349" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3720,7 +3718,7 @@
       <c r="A350" s="1">
         <v>40458</v>
       </c>
-      <c r="B350" s="2" t="s">
+      <c r="B350" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3728,7 +3726,7 @@
       <c r="A351" s="1">
         <v>40465</v>
       </c>
-      <c r="B351" s="2" t="s">
+      <c r="B351" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3736,7 +3734,7 @@
       <c r="A352" s="1">
         <v>40472</v>
       </c>
-      <c r="B352" s="2" t="s">
+      <c r="B352" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3744,7 +3742,7 @@
       <c r="A353" s="1">
         <v>40479</v>
       </c>
-      <c r="B353" s="2" t="s">
+      <c r="B353" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3752,7 +3750,7 @@
       <c r="A354" s="1">
         <v>40486</v>
       </c>
-      <c r="B354" s="2" t="s">
+      <c r="B354" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3760,7 +3758,7 @@
       <c r="A355" s="1">
         <v>40493</v>
       </c>
-      <c r="B355" s="2" t="s">
+      <c r="B355" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3768,7 +3766,7 @@
       <c r="A356" s="1">
         <v>40500</v>
       </c>
-      <c r="B356" s="2" t="s">
+      <c r="B356" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3776,7 +3774,7 @@
       <c r="A357" s="1">
         <v>40507</v>
       </c>
-      <c r="B357" s="2" t="s">
+      <c r="B357" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3784,7 +3782,7 @@
       <c r="A358" s="1">
         <v>40514</v>
       </c>
-      <c r="B358" s="2" t="s">
+      <c r="B358" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3792,7 +3790,7 @@
       <c r="A359" s="1">
         <v>40521</v>
       </c>
-      <c r="B359" s="2" t="s">
+      <c r="B359" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -3800,7 +3798,7 @@
       <c r="A360" s="1">
         <v>40528</v>
       </c>
-      <c r="B360" s="2" t="s">
+      <c r="B360" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3808,7 +3806,7 @@
       <c r="A361" s="1">
         <v>40535</v>
       </c>
-      <c r="B361" s="2" t="s">
+      <c r="B361" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3816,7 +3814,7 @@
       <c r="A362" s="1">
         <v>40549</v>
       </c>
-      <c r="B362" s="2" t="s">
+      <c r="B362" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3824,7 +3822,7 @@
       <c r="A363" s="1">
         <v>40556</v>
       </c>
-      <c r="B363" s="2" t="s">
+      <c r="B363" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3832,7 +3830,7 @@
       <c r="A364" s="1">
         <v>40563</v>
       </c>
-      <c r="B364" s="2" t="s">
+      <c r="B364" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3840,7 +3838,7 @@
       <c r="A365" s="1">
         <v>40570</v>
       </c>
-      <c r="B365" s="2" t="s">
+      <c r="B365" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3848,7 +3846,7 @@
       <c r="A366" s="1">
         <v>40577</v>
       </c>
-      <c r="B366" s="2" t="s">
+      <c r="B366" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3856,7 +3854,7 @@
       <c r="A367" s="1">
         <v>40584</v>
       </c>
-      <c r="B367" s="2" t="s">
+      <c r="B367" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3864,7 +3862,7 @@
       <c r="A368" s="1">
         <v>40591</v>
       </c>
-      <c r="B368" s="2" t="s">
+      <c r="B368" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3872,7 +3870,7 @@
       <c r="A369" s="1">
         <v>40598</v>
       </c>
-      <c r="B369" s="2" t="s">
+      <c r="B369" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3880,7 +3878,7 @@
       <c r="A370" s="1">
         <v>40605</v>
       </c>
-      <c r="B370" s="2" t="s">
+      <c r="B370" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -3888,7 +3886,7 @@
       <c r="A371" s="1">
         <v>40612</v>
       </c>
-      <c r="B371" s="2" t="s">
+      <c r="B371" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3896,7 +3894,7 @@
       <c r="A372" s="1">
         <v>40619</v>
       </c>
-      <c r="B372" s="2" t="s">
+      <c r="B372" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3904,7 +3902,7 @@
       <c r="A373" s="1">
         <v>40626</v>
       </c>
-      <c r="B373" s="2" t="s">
+      <c r="B373" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3912,7 +3910,7 @@
       <c r="A374" s="1">
         <v>40633</v>
       </c>
-      <c r="B374" s="2" t="s">
+      <c r="B374" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3920,7 +3918,7 @@
       <c r="A375" s="1">
         <v>40640</v>
       </c>
-      <c r="B375" s="2" t="s">
+      <c r="B375" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3928,7 +3926,7 @@
       <c r="A376" s="1">
         <v>40647</v>
       </c>
-      <c r="B376" s="2" t="s">
+      <c r="B376" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3936,7 +3934,7 @@
       <c r="A377" s="1">
         <v>40654</v>
       </c>
-      <c r="B377" s="2" t="s">
+      <c r="B377" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3944,7 +3942,7 @@
       <c r="A378" s="1">
         <v>40661</v>
       </c>
-      <c r="B378" s="2" t="s">
+      <c r="B378" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3952,7 +3950,7 @@
       <c r="A379" s="1">
         <v>40668</v>
       </c>
-      <c r="B379" s="2" t="s">
+      <c r="B379" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3960,7 +3958,7 @@
       <c r="A380" s="1">
         <v>40675</v>
       </c>
-      <c r="B380" s="2" t="s">
+      <c r="B380" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3968,7 +3966,7 @@
       <c r="A381" s="1">
         <v>40682</v>
       </c>
-      <c r="B381" s="2" t="s">
+      <c r="B381" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3976,7 +3974,7 @@
       <c r="A382" s="1">
         <v>40689</v>
       </c>
-      <c r="B382" s="2" t="s">
+      <c r="B382" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3984,7 +3982,7 @@
       <c r="A383" s="1">
         <v>40696</v>
       </c>
-      <c r="B383" s="2" t="s">
+      <c r="B383" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3992,7 +3990,7 @@
       <c r="A384" s="1">
         <v>40703</v>
       </c>
-      <c r="B384" s="2" t="s">
+      <c r="B384" s="3" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4000,7 +3998,7 @@
       <c r="A385" s="1">
         <v>40710</v>
       </c>
-      <c r="B385" s="2" t="s">
+      <c r="B385" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4008,7 +4006,7 @@
       <c r="A386" s="1">
         <v>40724</v>
       </c>
-      <c r="B386" s="2" t="s">
+      <c r="B386" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4016,7 +4014,7 @@
       <c r="A387" s="1">
         <v>40731</v>
       </c>
-      <c r="B387" s="2" t="s">
+      <c r="B387" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4024,7 +4022,7 @@
       <c r="A388" s="1">
         <v>40738</v>
       </c>
-      <c r="B388" s="2" t="s">
+      <c r="B388" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4032,7 +4030,7 @@
       <c r="A389" s="1">
         <v>40745</v>
       </c>
-      <c r="B389" s="2" t="s">
+      <c r="B389" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4040,7 +4038,7 @@
       <c r="A390" s="1">
         <v>40752</v>
       </c>
-      <c r="B390" s="2" t="s">
+      <c r="B390" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4048,7 +4046,7 @@
       <c r="A391" s="1">
         <v>40759</v>
       </c>
-      <c r="B391" s="2" t="s">
+      <c r="B391" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4056,7 +4054,7 @@
       <c r="A392" s="1">
         <v>40766</v>
       </c>
-      <c r="B392" s="2" t="s">
+      <c r="B392" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4064,7 +4062,7 @@
       <c r="A393" s="1">
         <v>40773</v>
       </c>
-      <c r="B393" s="2" t="s">
+      <c r="B393" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4072,7 +4070,7 @@
       <c r="A394" s="1">
         <v>40780</v>
       </c>
-      <c r="B394" s="2" t="s">
+      <c r="B394" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4080,7 +4078,7 @@
       <c r="A395" s="1">
         <v>40787</v>
       </c>
-      <c r="B395" s="2" t="s">
+      <c r="B395" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4088,7 +4086,7 @@
       <c r="A396" s="1">
         <v>40794</v>
       </c>
-      <c r="B396" s="2" t="s">
+      <c r="B396" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4096,7 +4094,7 @@
       <c r="A397" s="1">
         <v>40801</v>
       </c>
-      <c r="B397" s="2" t="s">
+      <c r="B397" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4104,7 +4102,7 @@
       <c r="A398" s="1">
         <v>40808</v>
       </c>
-      <c r="B398" s="2" t="s">
+      <c r="B398" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4112,7 +4110,7 @@
       <c r="A399" s="1">
         <v>40815</v>
       </c>
-      <c r="B399" s="2" t="s">
+      <c r="B399" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4120,7 +4118,7 @@
       <c r="A400" s="1">
         <v>40822</v>
       </c>
-      <c r="B400" s="2" t="s">
+      <c r="B400" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4128,7 +4126,7 @@
       <c r="A401" s="1">
         <v>40829</v>
       </c>
-      <c r="B401" s="2" t="s">
+      <c r="B401" s="3" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4136,7 +4134,7 @@
       <c r="A402" s="1">
         <v>40836</v>
       </c>
-      <c r="B402" s="2" t="s">
+      <c r="B402" s="3" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4144,7 +4142,7 @@
       <c r="A403" s="1">
         <v>40843</v>
       </c>
-      <c r="B403" s="2" t="s">
+      <c r="B403" s="3" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4152,7 +4150,7 @@
       <c r="A404" s="1">
         <v>40850</v>
       </c>
-      <c r="B404" s="2" t="s">
+      <c r="B404" s="3" t="s">
         <v>75</v>
       </c>
     </row>
@@ -4160,7 +4158,7 @@
       <c r="A405" s="1">
         <v>40857</v>
       </c>
-      <c r="B405" s="2" t="s">
+      <c r="B405" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4168,7 +4166,7 @@
       <c r="A406" s="1">
         <v>40864</v>
       </c>
-      <c r="B406" s="2" t="s">
+      <c r="B406" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4176,7 +4174,7 @@
       <c r="A407" s="1">
         <v>40871</v>
       </c>
-      <c r="B407" s="2" t="s">
+      <c r="B407" s="3" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4184,7 +4182,7 @@
       <c r="A408" s="1">
         <v>40878</v>
       </c>
-      <c r="B408" s="2" t="s">
+      <c r="B408" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4192,7 +4190,7 @@
       <c r="A409" s="1">
         <v>40884</v>
       </c>
-      <c r="B409" s="2" t="s">
+      <c r="B409" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4200,7 +4198,7 @@
       <c r="A410" s="1">
         <v>40892</v>
       </c>
-      <c r="B410" s="2" t="s">
+      <c r="B410" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -4208,7 +4206,7 @@
       <c r="A411" s="1">
         <v>40913</v>
       </c>
-      <c r="B411" s="2" t="s">
+      <c r="B411" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4216,7 +4214,7 @@
       <c r="A412" s="1">
         <v>40920</v>
       </c>
-      <c r="B412" s="2" t="s">
+      <c r="B412" s="3" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4224,7 +4222,7 @@
       <c r="A413" s="1">
         <v>40927</v>
       </c>
-      <c r="B413" s="2" t="s">
+      <c r="B413" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4232,7 +4230,7 @@
       <c r="A414" s="1">
         <v>40934</v>
       </c>
-      <c r="B414" s="2" t="s">
+      <c r="B414" s="3" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4240,7 +4238,7 @@
       <c r="A415" s="1">
         <v>40941</v>
       </c>
-      <c r="B415" s="2" t="s">
+      <c r="B415" s="3" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4248,7 +4246,7 @@
       <c r="A416" s="1">
         <v>40948</v>
       </c>
-      <c r="B416" s="2" t="s">
+      <c r="B416" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4256,7 +4254,7 @@
       <c r="A417" s="1">
         <v>40955</v>
       </c>
-      <c r="B417" s="2" t="s">
+      <c r="B417" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4264,7 +4262,7 @@
       <c r="A418" s="1">
         <v>40962</v>
       </c>
-      <c r="B418" s="2" t="s">
+      <c r="B418" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4272,7 +4270,7 @@
       <c r="A419" s="1">
         <v>40969</v>
       </c>
-      <c r="B419" s="2" t="s">
+      <c r="B419" s="3" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4280,7 +4278,7 @@
       <c r="A420" s="1">
         <v>40976</v>
       </c>
-      <c r="B420" s="2" t="s">
+      <c r="B420" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4288,7 +4286,7 @@
       <c r="A421" s="1">
         <v>40983</v>
       </c>
-      <c r="B421" s="2" t="s">
+      <c r="B421" s="3" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4296,7 +4294,7 @@
       <c r="A422" s="1">
         <v>40990</v>
       </c>
-      <c r="B422" s="2" t="s">
+      <c r="B422" s="3" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4304,7 +4302,7 @@
       <c r="A423" s="1">
         <v>40996</v>
       </c>
-      <c r="B423" s="2" t="s">
+      <c r="B423" s="3" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4312,7 +4310,7 @@
       <c r="A424" s="1">
         <v>41004</v>
       </c>
-      <c r="B424" s="2" t="s">
+      <c r="B424" s="3" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4320,7 +4318,7 @@
       <c r="A425" s="1">
         <v>41012</v>
       </c>
-      <c r="B425" s="2" t="s">
+      <c r="B425" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4328,7 +4326,7 @@
       <c r="A426" s="1">
         <v>41018</v>
       </c>
-      <c r="B426" s="2" t="s">
+      <c r="B426" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4336,7 +4334,7 @@
       <c r="A427" s="1">
         <v>41025</v>
       </c>
-      <c r="B427" s="2" t="s">
+      <c r="B427" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4344,7 +4342,7 @@
       <c r="A428" s="1">
         <v>41032</v>
       </c>
-      <c r="B428" s="2" t="s">
+      <c r="B428" s="3" t="s">
         <v>95</v>
       </c>
     </row>
@@ -4352,7 +4350,7 @@
       <c r="A429" s="1">
         <v>41040</v>
       </c>
-      <c r="B429" s="2" t="s">
+      <c r="B429" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4360,7 +4358,7 @@
       <c r="A430" s="1">
         <v>41046</v>
       </c>
-      <c r="B430" s="2" t="s">
+      <c r="B430" s="3" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4368,7 +4366,7 @@
       <c r="A431" s="1">
         <v>41053</v>
       </c>
-      <c r="B431" s="2" t="s">
+      <c r="B431" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4376,7 +4374,7 @@
       <c r="A432" s="1">
         <v>41060</v>
       </c>
-      <c r="B432" s="2" t="s">
+      <c r="B432" s="3" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4384,7 +4382,7 @@
       <c r="A433" s="1">
         <v>41066</v>
       </c>
-      <c r="B433" s="2" t="s">
+      <c r="B433" s="3" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4392,7 +4390,7 @@
       <c r="A434" s="1">
         <v>41074</v>
       </c>
-      <c r="B434" s="2" t="s">
+      <c r="B434" s="3" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4400,7 +4398,7 @@
       <c r="A435" s="1">
         <v>41081</v>
       </c>
-      <c r="B435" s="2" t="s">
+      <c r="B435" s="3" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4408,7 +4406,7 @@
       <c r="A436" s="1">
         <v>41088</v>
       </c>
-      <c r="B436" s="2" t="s">
+      <c r="B436" s="3" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4416,7 +4414,7 @@
       <c r="A437" s="1">
         <v>41095</v>
       </c>
-      <c r="B437" s="2" t="s">
+      <c r="B437" s="3" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4424,7 +4422,7 @@
       <c r="A438" s="1">
         <v>41102</v>
       </c>
-      <c r="B438" s="2" t="s">
+      <c r="B438" s="3" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4432,7 +4430,7 @@
       <c r="A439" s="1">
         <v>41109</v>
       </c>
-      <c r="B439" s="2" t="s">
+      <c r="B439" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -4440,7 +4438,7 @@
       <c r="A440" s="1">
         <v>41116</v>
       </c>
-      <c r="B440" s="2" t="s">
+      <c r="B440" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4448,7 +4446,7 @@
       <c r="A441" s="1">
         <v>41123</v>
       </c>
-      <c r="B441" s="2" t="s">
+      <c r="B441" s="3" t="s">
         <v>97</v>
       </c>
     </row>
@@ -4456,7 +4454,7 @@
       <c r="A442" s="1">
         <v>41130</v>
       </c>
-      <c r="B442" s="2" t="s">
+      <c r="B442" s="3" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4464,7 +4462,7 @@
       <c r="A443" s="1">
         <v>41137</v>
       </c>
-      <c r="B443" s="2" t="s">
+      <c r="B443" s="3" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4472,7 +4470,7 @@
       <c r="A444" s="1">
         <v>41144</v>
       </c>
-      <c r="B444" s="2" t="s">
+      <c r="B444" s="3" t="s">
         <v>99</v>
       </c>
     </row>
@@ -4480,7 +4478,7 @@
       <c r="A445" s="1">
         <v>41151</v>
       </c>
-      <c r="B445" s="2" t="s">
+      <c r="B445" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4488,7 +4486,7 @@
       <c r="A446" s="1">
         <v>41158</v>
       </c>
-      <c r="B446" s="2" t="s">
+      <c r="B446" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4496,7 +4494,7 @@
       <c r="A447" s="1">
         <v>41165</v>
       </c>
-      <c r="B447" s="2" t="s">
+      <c r="B447" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4504,7 +4502,7 @@
       <c r="A448" s="1">
         <v>41172</v>
       </c>
-      <c r="B448" s="2" t="s">
+      <c r="B448" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4512,7 +4510,7 @@
       <c r="A449" s="1">
         <v>41179</v>
       </c>
-      <c r="B449" s="2" t="s">
+      <c r="B449" s="3" t="s">
         <v>99</v>
       </c>
     </row>
@@ -4520,7 +4518,7 @@
       <c r="A450" s="1">
         <v>41186</v>
       </c>
-      <c r="B450" s="2" t="s">
+      <c r="B450" s="3" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4528,7 +4526,7 @@
       <c r="A451" s="1">
         <v>41192</v>
       </c>
-      <c r="B451" s="2" t="s">
+      <c r="B451" s="3" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4536,7 +4534,7 @@
       <c r="A452" s="1">
         <v>41200</v>
       </c>
-      <c r="B452" s="2" t="s">
+      <c r="B452" s="3" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4544,7 +4542,7 @@
       <c r="A453" s="1">
         <v>41214</v>
       </c>
-      <c r="B453" s="2" t="s">
+      <c r="B453" s="3" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4552,7 +4550,7 @@
       <c r="A454" s="1">
         <v>41221</v>
       </c>
-      <c r="B454" s="2" t="s">
+      <c r="B454" s="3" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4560,7 +4558,7 @@
       <c r="A455" s="1">
         <v>41227</v>
       </c>
-      <c r="B455" s="2" t="s">
+      <c r="B455" s="3" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4568,7 +4566,7 @@
       <c r="A456" s="1">
         <v>41235</v>
       </c>
-      <c r="B456" s="2" t="s">
+      <c r="B456" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4576,7 +4574,7 @@
       <c r="A457" s="1">
         <v>41242</v>
       </c>
-      <c r="B457" s="2" t="s">
+      <c r="B457" s="3" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4584,7 +4582,7 @@
       <c r="A458" s="1">
         <v>41249</v>
       </c>
-      <c r="B458" s="2" t="s">
+      <c r="B458" s="3" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4592,7 +4590,7 @@
       <c r="A459" s="1">
         <v>41256</v>
       </c>
-      <c r="B459" s="2" t="s">
+      <c r="B459" s="3" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4600,7 +4598,7 @@
       <c r="A460" s="1">
         <v>41256</v>
       </c>
-      <c r="B460" s="2" t="s">
+      <c r="B460" s="3" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4608,7 +4606,7 @@
       <c r="A461" s="1">
         <v>41263</v>
       </c>
-      <c r="B461" s="2" t="s">
+      <c r="B461" s="3" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4616,7 +4614,7 @@
       <c r="A462" s="1">
         <v>41270</v>
       </c>
-      <c r="B462" s="2" t="s">
+      <c r="B462" s="3" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4624,7 +4622,7 @@
       <c r="A463" s="1">
         <v>41277</v>
       </c>
-      <c r="B463" s="2" t="s">
+      <c r="B463" s="3" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4632,7 +4630,7 @@
       <c r="A464" s="1">
         <v>41284</v>
       </c>
-      <c r="B464" s="2" t="s">
+      <c r="B464" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4640,7 +4638,7 @@
       <c r="A465" s="1">
         <v>41291</v>
       </c>
-      <c r="B465" s="2" t="s">
+      <c r="B465" s="3" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4648,7 +4646,7 @@
       <c r="A466" s="1">
         <v>41298</v>
       </c>
-      <c r="B466" s="2" t="s">
+      <c r="B466" s="3" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4656,7 +4654,7 @@
       <c r="A467" s="1">
         <v>41305</v>
       </c>
-      <c r="B467" s="2" t="s">
+      <c r="B467" s="3" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4664,7 +4662,7 @@
       <c r="A468" s="1">
         <v>41312</v>
       </c>
-      <c r="B468" s="2" t="s">
+      <c r="B468" s="3" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4672,7 +4670,7 @@
       <c r="A469" s="1">
         <v>41319</v>
       </c>
-      <c r="B469" s="2" t="s">
+      <c r="B469" s="3" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4680,7 +4678,7 @@
       <c r="A470" s="1">
         <v>41326</v>
       </c>
-      <c r="B470" s="2" t="s">
+      <c r="B470" s="3" t="s">
         <v>105</v>
       </c>
     </row>
@@ -4688,7 +4686,7 @@
       <c r="A471" s="1">
         <v>41333</v>
       </c>
-      <c r="B471" s="2" t="s">
+      <c r="B471" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4696,7 +4694,7 @@
       <c r="A472" s="1">
         <v>41340</v>
       </c>
-      <c r="B472" s="2" t="s">
+      <c r="B472" s="3" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4704,7 +4702,7 @@
       <c r="A473" s="1">
         <v>41347</v>
       </c>
-      <c r="B473" s="2" t="s">
+      <c r="B473" s="3" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4712,7 +4710,7 @@
       <c r="A474" s="1">
         <v>41354</v>
       </c>
-      <c r="B474" s="2" t="s">
+      <c r="B474" s="3" t="s">
         <v>107</v>
       </c>
     </row>
@@ -4720,7 +4718,7 @@
       <c r="A475" s="1">
         <v>41361</v>
       </c>
-      <c r="B475" s="2" t="s">
+      <c r="B475" s="3" t="s">
         <v>107</v>
       </c>
     </row>
@@ -4728,7 +4726,7 @@
       <c r="A476" s="1">
         <v>41368</v>
       </c>
-      <c r="B476" s="2" t="s">
+      <c r="B476" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4736,7 +4734,7 @@
       <c r="A477" s="1">
         <v>41375</v>
       </c>
-      <c r="B477" s="2" t="s">
+      <c r="B477" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4744,7 +4742,7 @@
       <c r="A478" s="1">
         <v>41382</v>
       </c>
-      <c r="B478" s="2" t="s">
+      <c r="B478" s="3" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4752,7 +4750,7 @@
       <c r="A479" s="1">
         <v>41389</v>
       </c>
-      <c r="B479" s="2" t="s">
+      <c r="B479" s="3" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4760,7 +4758,7 @@
       <c r="A480" s="1">
         <v>41396</v>
       </c>
-      <c r="B480" s="2" t="s">
+      <c r="B480" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4768,7 +4766,7 @@
       <c r="A481" s="1">
         <v>41403</v>
       </c>
-      <c r="B481" s="2" t="s">
+      <c r="B481" s="3" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4776,7 +4774,7 @@
       <c r="A482" s="1">
         <v>41410</v>
       </c>
-      <c r="B482" s="2" t="s">
+      <c r="B482" s="3" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4784,7 +4782,7 @@
       <c r="A483" s="1">
         <v>41416</v>
       </c>
-      <c r="B483" s="2" t="s">
+      <c r="B483" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4792,7 +4790,7 @@
       <c r="A484" s="1">
         <v>41423</v>
       </c>
-      <c r="B484" s="2" t="s">
+      <c r="B484" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4800,7 +4798,7 @@
       <c r="A485" s="1">
         <v>41429</v>
       </c>
-      <c r="B485" s="2" t="s">
+      <c r="B485" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4808,7 +4806,7 @@
       <c r="A486" s="1">
         <v>41431</v>
       </c>
-      <c r="B486" s="2" t="s">
+      <c r="B486" s="3" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4816,7 +4814,7 @@
       <c r="A487" s="1">
         <v>41438</v>
       </c>
-      <c r="B487" s="2" t="s">
+      <c r="B487" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4824,7 +4822,7 @@
       <c r="A488" s="1">
         <v>41445</v>
       </c>
-      <c r="B488" s="2" t="s">
+      <c r="B488" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4832,7 +4830,7 @@
       <c r="A489" s="1">
         <v>41452</v>
       </c>
-      <c r="B489" s="2">
+      <c r="B489" s="3">
         <v>3</v>
       </c>
     </row>
@@ -4840,7 +4838,7 @@
       <c r="A490" s="1">
         <v>41480</v>
       </c>
-      <c r="B490" s="2" t="s">
+      <c r="B490" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4848,7 +4846,7 @@
       <c r="A491" s="1">
         <v>41487</v>
       </c>
-      <c r="B491" s="2" t="s">
+      <c r="B491" s="3" t="s">
         <v>99</v>
       </c>
     </row>
@@ -4856,7 +4854,7 @@
       <c r="A492" s="1">
         <v>41494</v>
       </c>
-      <c r="B492" s="2" t="s">
+      <c r="B492" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -4864,7 +4862,7 @@
       <c r="A493" s="1">
         <v>41500</v>
       </c>
-      <c r="B493" s="2" t="s">
+      <c r="B493" s="3" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4872,7 +4870,7 @@
       <c r="A494" s="1">
         <v>41508</v>
       </c>
-      <c r="B494" s="2" t="s">
+      <c r="B494" s="3" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4880,7 +4878,7 @@
       <c r="A495" s="1">
         <v>41509</v>
       </c>
-      <c r="B495" s="2" t="s">
+      <c r="B495" s="3" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4888,7 +4886,7 @@
       <c r="A496" s="1">
         <v>41515</v>
       </c>
-      <c r="B496" s="2" t="s">
+      <c r="B496" s="3" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4896,7 +4894,7 @@
       <c r="A497" s="1">
         <v>41522</v>
       </c>
-      <c r="B497" s="2" t="s">
+      <c r="B497" s="3" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4904,7 +4902,7 @@
       <c r="A498" s="1">
         <v>41529</v>
       </c>
-      <c r="B498" s="2" t="s">
+      <c r="B498" s="3" t="s">
         <v>101</v>
       </c>
     </row>
@@ -4912,7 +4910,7 @@
       <c r="A499" s="1">
         <v>41537</v>
       </c>
-      <c r="B499" s="2" t="s">
+      <c r="B499" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4920,7 +4918,7 @@
       <c r="A500" s="1">
         <v>41543</v>
       </c>
-      <c r="B500" s="2" t="s">
+      <c r="B500" s="3" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4928,7 +4926,7 @@
       <c r="A501" s="1">
         <v>41550</v>
       </c>
-      <c r="B501" s="2" t="s">
+      <c r="B501" s="3" t="s">
         <v>110</v>
       </c>
     </row>
@@ -4936,7 +4934,7 @@
       <c r="A502" s="1">
         <v>41557</v>
       </c>
-      <c r="B502" s="2" t="s">
+      <c r="B502" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4944,7 +4942,7 @@
       <c r="A503" s="1">
         <v>41564</v>
       </c>
-      <c r="B503" s="2" t="s">
+      <c r="B503" s="3" t="s">
         <v>112</v>
       </c>
     </row>
@@ -4952,7 +4950,7 @@
       <c r="A504" s="1">
         <v>41571</v>
       </c>
-      <c r="B504" s="2" t="s">
+      <c r="B504" s="3" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4960,7 +4958,7 @@
       <c r="A505" s="1">
         <v>41572</v>
       </c>
-      <c r="B505" s="2" t="s">
+      <c r="B505" s="3" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4968,7 +4966,7 @@
       <c r="A506" s="1">
         <v>41578</v>
       </c>
-      <c r="B506" s="2" t="s">
+      <c r="B506" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4976,7 +4974,7 @@
       <c r="A507" s="1">
         <v>41585</v>
       </c>
-      <c r="B507" s="2" t="s">
+      <c r="B507" s="3" t="s">
         <v>110</v>
       </c>
     </row>
@@ -4984,7 +4982,7 @@
       <c r="A508" s="1">
         <v>41592</v>
       </c>
-      <c r="B508" s="2" t="s">
+      <c r="B508" s="3" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4992,7 +4990,7 @@
       <c r="A509" s="1">
         <v>41599</v>
       </c>
-      <c r="B509" s="2" t="s">
+      <c r="B509" s="3" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5000,7 +4998,7 @@
       <c r="A510" s="1">
         <v>41606</v>
       </c>
-      <c r="B510" s="2" t="s">
+      <c r="B510" s="3" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5008,7 +5006,7 @@
       <c r="A511" s="1">
         <v>41613</v>
       </c>
-      <c r="B511" s="2" t="s">
+      <c r="B511" s="3" t="s">
         <v>110</v>
       </c>
     </row>
@@ -5016,7 +5014,7 @@
       <c r="A512" s="1">
         <v>41620</v>
       </c>
-      <c r="B512" s="2" t="s">
+      <c r="B512" s="3" t="s">
         <v>110</v>
       </c>
     </row>
@@ -5024,7 +5022,7 @@
       <c r="A513" s="1">
         <v>41627</v>
       </c>
-      <c r="B513" s="2" t="s">
+      <c r="B513" s="3" t="s">
         <v>110</v>
       </c>
     </row>
@@ -5032,7 +5030,7 @@
       <c r="A514" s="1">
         <v>41641</v>
       </c>
-      <c r="B514" s="2" t="s">
+      <c r="B514" s="3" t="s">
         <v>110</v>
       </c>
     </row>
@@ -5040,7 +5038,7 @@
       <c r="A515" s="1">
         <v>41648</v>
       </c>
-      <c r="B515" s="2" t="s">
+      <c r="B515" s="3" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5048,7 +5046,7 @@
       <c r="A516" s="1">
         <v>41655</v>
       </c>
-      <c r="B516" s="2" t="s">
+      <c r="B516" s="3" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5056,7 +5054,7 @@
       <c r="A517" s="1">
         <v>41662</v>
       </c>
-      <c r="B517" s="2" t="s">
+      <c r="B517" s="3" t="s">
         <v>116</v>
       </c>
     </row>
@@ -5064,7 +5062,7 @@
       <c r="A518" s="1">
         <v>41669</v>
       </c>
-      <c r="B518" s="2" t="s">
+      <c r="B518" s="3" t="s">
         <v>117</v>
       </c>
     </row>
@@ -5072,7 +5070,7 @@
       <c r="A519" s="1">
         <v>41676</v>
       </c>
-      <c r="B519" s="2" t="s">
+      <c r="B519" s="3" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5080,7 +5078,7 @@
       <c r="A520" s="1">
         <v>41683</v>
       </c>
-      <c r="B520" s="2" t="s">
+      <c r="B520" s="3" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5088,7 +5086,7 @@
       <c r="A521" s="1">
         <v>41690</v>
       </c>
-      <c r="B521" s="2" t="s">
+      <c r="B521" s="3" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5096,7 +5094,7 @@
       <c r="A522" s="1">
         <v>41697</v>
       </c>
-      <c r="B522" s="2" t="s">
+      <c r="B522" s="3" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5104,7 +5102,7 @@
       <c r="A523" s="1">
         <v>41704</v>
       </c>
-      <c r="B523" s="2" t="s">
+      <c r="B523" s="3" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5112,7 +5110,7 @@
       <c r="A524" s="1">
         <v>41711</v>
       </c>
-      <c r="B524" s="2" t="s">
+      <c r="B524" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5120,7 +5118,7 @@
       <c r="A525" s="1">
         <v>41718</v>
       </c>
-      <c r="B525" s="2" t="s">
+      <c r="B525" s="3" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5128,7 +5126,7 @@
       <c r="A526" s="1">
         <v>41725</v>
       </c>
-      <c r="B526" s="2" t="s">
+      <c r="B526" s="3" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5136,7 +5134,7 @@
       <c r="A527" s="1">
         <v>41732</v>
       </c>
-      <c r="B527" s="2" t="s">
+      <c r="B527" s="3" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5144,7 +5142,7 @@
       <c r="A528" s="1">
         <v>41739</v>
       </c>
-      <c r="B528" s="2" t="s">
+      <c r="B528" s="3" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5152,7 +5150,7 @@
       <c r="A529" s="1">
         <v>41745</v>
       </c>
-      <c r="B529" s="2" t="s">
+      <c r="B529" s="3" t="s">
         <v>81</v>
       </c>
     </row>
@@ -5160,7 +5158,7 @@
       <c r="A530" s="1">
         <v>41753</v>
       </c>
-      <c r="B530" s="2" t="s">
+      <c r="B530" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5168,7 +5166,7 @@
       <c r="A531" s="1">
         <v>41759</v>
       </c>
-      <c r="B531" s="2" t="s">
+      <c r="B531" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5176,7 +5174,7 @@
       <c r="A532" s="1">
         <v>41767</v>
       </c>
-      <c r="B532" s="2" t="s">
+      <c r="B532" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5184,7 +5182,7 @@
       <c r="A533" s="1">
         <v>41774</v>
       </c>
-      <c r="B533" s="2" t="s">
+      <c r="B533" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5192,7 +5190,7 @@
       <c r="A534" s="1">
         <v>41781</v>
       </c>
-      <c r="B534" s="2" t="s">
+      <c r="B534" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5200,7 +5198,7 @@
       <c r="A535" s="1">
         <v>41788</v>
       </c>
-      <c r="B535" s="2" t="s">
+      <c r="B535" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5208,7 +5206,7 @@
       <c r="A536" s="1">
         <v>41795</v>
       </c>
-      <c r="B536" s="2" t="s">
+      <c r="B536" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5216,7 +5214,7 @@
       <c r="A537" s="1">
         <v>41801</v>
       </c>
-      <c r="B537" s="2" t="s">
+      <c r="B537" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5224,7 +5222,7 @@
       <c r="A538" s="1">
         <v>41808</v>
       </c>
-      <c r="B538" s="2" t="s">
+      <c r="B538" s="3" t="s">
         <v>100</v>
       </c>
     </row>
@@ -5232,7 +5230,7 @@
       <c r="A539" s="1">
         <v>41816</v>
       </c>
-      <c r="B539" s="2" t="s">
+      <c r="B539" s="3" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5240,7 +5238,7 @@
       <c r="A540" s="1">
         <v>41823</v>
       </c>
-      <c r="B540" s="2" t="s">
+      <c r="B540" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5248,7 +5246,7 @@
       <c r="A541" s="1">
         <v>41830</v>
       </c>
-      <c r="B541" s="2" t="s">
+      <c r="B541" s="3" t="s">
         <v>119</v>
       </c>
     </row>
@@ -5256,7 +5254,7 @@
       <c r="A542" s="1">
         <v>41837</v>
       </c>
-      <c r="B542" s="2" t="s">
+      <c r="B542" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5264,7 +5262,7 @@
       <c r="A543" s="1">
         <v>41844</v>
       </c>
-      <c r="B543" s="2" t="s">
+      <c r="B543" s="3" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5272,7 +5270,7 @@
       <c r="A544" s="1">
         <v>41850</v>
       </c>
-      <c r="B544" s="2" t="s">
+      <c r="B544" s="3" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5280,7 +5278,7 @@
       <c r="A545" s="1">
         <v>41858</v>
       </c>
-      <c r="B545" s="2" t="s">
+      <c r="B545" s="3" t="s">
         <v>110</v>
       </c>
     </row>
@@ -5288,7 +5286,7 @@
       <c r="A546" s="1">
         <v>41864</v>
       </c>
-      <c r="B546" s="2" t="s">
+      <c r="B546" s="3" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5296,7 +5294,7 @@
       <c r="A547" s="1">
         <v>41886</v>
       </c>
-      <c r="B547" s="2" t="s">
+      <c r="B547" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5304,7 +5302,7 @@
       <c r="A548" s="1">
         <v>41893</v>
       </c>
-      <c r="B548" s="2" t="s">
+      <c r="B548" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5312,7 +5310,7 @@
       <c r="A549" s="1">
         <v>41907</v>
       </c>
-      <c r="B549" s="2" t="s">
+      <c r="B549" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5320,7 +5318,7 @@
       <c r="A550" s="1">
         <v>41921</v>
       </c>
-      <c r="B550" s="2" t="s">
+      <c r="B550" s="3" t="s">
         <v>121</v>
       </c>
     </row>
@@ -5328,7 +5326,7 @@
       <c r="A551" s="1">
         <v>41935</v>
       </c>
-      <c r="B551" s="2" t="s">
+      <c r="B551" s="3" t="s">
         <v>122</v>
       </c>
     </row>
@@ -5336,7 +5334,7 @@
       <c r="A552" s="1">
         <v>41942</v>
       </c>
-      <c r="B552" s="2" t="s">
+      <c r="B552" s="3" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5344,7 +5342,7 @@
       <c r="A553" s="1">
         <v>41949</v>
       </c>
-      <c r="B553" s="2" t="s">
+      <c r="B553" s="3" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5352,7 +5350,7 @@
       <c r="A554" s="1">
         <v>41956</v>
       </c>
-      <c r="B554" s="2" t="s">
+      <c r="B554" s="3" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5360,7 +5358,7 @@
       <c r="A555" s="1">
         <v>41977</v>
       </c>
-      <c r="B555" s="2" t="s">
+      <c r="B555" s="3" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5368,7 +5366,7 @@
       <c r="A556" s="1">
         <v>41990</v>
       </c>
-      <c r="B556" s="2" t="s">
+      <c r="B556" s="3" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5376,7 +5374,7 @@
       <c r="A557" s="1">
         <v>42026</v>
       </c>
-      <c r="B557" s="2" t="s">
+      <c r="B557" s="3" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5384,7 +5382,7 @@
       <c r="A558" s="1">
         <v>42033</v>
       </c>
-      <c r="B558" s="2" t="s">
+      <c r="B558" s="3" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5392,7 +5390,7 @@
       <c r="A559" s="1">
         <v>42047</v>
       </c>
-      <c r="B559" s="2" t="s">
+      <c r="B559" s="3" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5400,7 +5398,7 @@
       <c r="A560" s="1">
         <v>42065</v>
       </c>
-      <c r="B560" s="2" t="s">
+      <c r="B560" s="3" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5408,7 +5406,7 @@
       <c r="A561" s="1">
         <v>42072</v>
       </c>
-      <c r="B561" s="2" t="s">
+      <c r="B561" s="3" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5416,7 +5414,7 @@
       <c r="A562" s="1">
         <v>42079</v>
       </c>
-      <c r="B562" s="2" t="s">
+      <c r="B562" s="3" t="s">
         <v>125</v>
       </c>
     </row>
@@ -5424,7 +5422,7 @@
       <c r="A563" s="1">
         <v>42086</v>
       </c>
-      <c r="B563" s="2" t="s">
+      <c r="B563" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5432,7 +5430,7 @@
       <c r="A564" s="1">
         <v>42093</v>
       </c>
-      <c r="B564" s="2" t="s">
+      <c r="B564" s="3" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5440,7 +5438,7 @@
       <c r="A565" s="1">
         <v>42100</v>
       </c>
-      <c r="B565" s="2" t="s">
+      <c r="B565" s="3" t="s">
         <v>99</v>
       </c>
     </row>
@@ -5448,7 +5446,7 @@
       <c r="A566" s="1">
         <v>42107</v>
       </c>
-      <c r="B566" s="2" t="s">
+      <c r="B566" s="3" t="s">
         <v>99</v>
       </c>
     </row>
@@ -5456,7 +5454,7 @@
       <c r="A567" s="1">
         <v>42114</v>
       </c>
-      <c r="B567" s="2" t="s">
+      <c r="B567" s="3" t="s">
         <v>99</v>
       </c>
     </row>
@@ -5464,7 +5462,7 @@
       <c r="A568" s="1">
         <v>42128</v>
       </c>
-      <c r="B568" s="2" t="s">
+      <c r="B568" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -5472,7 +5470,7 @@
       <c r="A569" s="1">
         <v>42135</v>
       </c>
-      <c r="B569" s="2" t="s">
+      <c r="B569" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -5480,7 +5478,7 @@
       <c r="A570" s="1">
         <v>42149</v>
       </c>
-      <c r="B570" s="2" t="s">
+      <c r="B570" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5488,7 +5486,7 @@
       <c r="A571" s="1">
         <v>42156</v>
       </c>
-      <c r="B571" s="2" t="s">
+      <c r="B571" s="3" t="s">
         <v>107</v>
       </c>
     </row>
@@ -5496,7 +5494,7 @@
       <c r="A572" s="1">
         <v>42170</v>
       </c>
-      <c r="B572" s="2" t="s">
+      <c r="B572" s="3" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5504,7 +5502,7 @@
       <c r="A573" s="1">
         <v>42177</v>
       </c>
-      <c r="B573" s="2" t="s">
+      <c r="B573" s="3" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5512,7 +5510,7 @@
       <c r="A574" s="1">
         <v>42233</v>
       </c>
-      <c r="B574" s="2" t="s">
+      <c r="B574" s="3" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5520,7 +5518,7 @@
       <c r="A575" s="1">
         <v>42240</v>
       </c>
-      <c r="B575" s="2" t="s">
+      <c r="B575" s="3" t="s">
         <v>101</v>
       </c>
     </row>
@@ -5528,7 +5526,7 @@
       <c r="A576" s="1">
         <v>42255</v>
       </c>
-      <c r="B576" s="2" t="s">
+      <c r="B576" s="3" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5536,7 +5534,7 @@
       <c r="A577" s="1">
         <v>42261</v>
       </c>
-      <c r="B577" s="2" t="s">
+      <c r="B577" s="3" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5544,7 +5542,7 @@
       <c r="A578" s="1">
         <v>42275</v>
       </c>
-      <c r="B578" s="2" t="s">
+      <c r="B578" s="3" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5552,7 +5550,7 @@
       <c r="A579" s="1">
         <v>42282</v>
       </c>
-      <c r="B579" s="2" t="s">
+      <c r="B579" s="3" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5560,7 +5558,7 @@
       <c r="A580" s="1">
         <v>42290</v>
       </c>
-      <c r="B580" s="2" t="s">
+      <c r="B580" s="3" t="s">
         <v>126</v>
       </c>
     </row>
@@ -5568,7 +5566,7 @@
       <c r="A581" s="1">
         <v>42296</v>
       </c>
-      <c r="B581" s="2" t="s">
+      <c r="B581" s="3" t="s">
         <v>128</v>
       </c>
     </row>
@@ -5576,7 +5574,7 @@
       <c r="A582" s="1">
         <v>42303</v>
       </c>
-      <c r="B582" s="2" t="s">
+      <c r="B582" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5584,7 +5582,7 @@
       <c r="A583" s="1">
         <v>42311</v>
       </c>
-      <c r="B583" s="2" t="s">
+      <c r="B583" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5592,7 +5590,7 @@
       <c r="A584" s="1">
         <v>42324</v>
       </c>
-      <c r="B584" s="2" t="s">
+      <c r="B584" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -5600,7 +5598,7 @@
       <c r="A585" s="1">
         <v>42331</v>
       </c>
-      <c r="B585" s="2" t="s">
+      <c r="B585" s="3" t="s">
         <v>110</v>
       </c>
     </row>
@@ -5608,7 +5606,7 @@
       <c r="A586" s="1">
         <v>42338</v>
       </c>
-      <c r="B586" s="2" t="s">
+      <c r="B586" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5616,7 +5614,7 @@
       <c r="A587" s="1">
         <v>42345</v>
       </c>
-      <c r="B587" s="2" t="s">
+      <c r="B587" s="3" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5624,7 +5622,7 @@
       <c r="A588" s="1">
         <v>42352</v>
       </c>
-      <c r="B588" s="2" t="s">
+      <c r="B588" s="3" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5632,7 +5630,7 @@
       <c r="A589" s="1">
         <v>42356</v>
       </c>
-      <c r="B589" s="2" t="s">
+      <c r="B589" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5640,7 +5638,7 @@
       <c r="A590" s="1">
         <v>42359</v>
       </c>
-      <c r="B590" s="2" t="s">
+      <c r="B590" s="3" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5648,7 +5646,7 @@
       <c r="A591" s="1">
         <v>42373</v>
       </c>
-      <c r="B591" s="2" t="s">
+      <c r="B591" s="3" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5656,7 +5654,7 @@
       <c r="A592" s="1">
         <v>42380</v>
       </c>
-      <c r="B592" s="2" t="s">
+      <c r="B592" s="3" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5664,7 +5662,7 @@
       <c r="A593" s="1">
         <v>42394</v>
       </c>
-      <c r="B593" s="2" t="s">
+      <c r="B593" s="3" t="s">
         <v>104</v>
       </c>
     </row>
@@ -5672,7 +5670,7 @@
       <c r="A594" s="1">
         <v>42415</v>
       </c>
-      <c r="B594" s="2" t="s">
+      <c r="B594" s="3" t="s">
         <v>106</v>
       </c>
     </row>
@@ -5680,7 +5678,7 @@
       <c r="A595" s="1">
         <v>42422</v>
       </c>
-      <c r="B595" s="2" t="s">
+      <c r="B595" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5688,7 +5686,7 @@
       <c r="A596" s="1">
         <v>42429</v>
       </c>
-      <c r="B596" s="2" t="s">
+      <c r="B596" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5696,7 +5694,7 @@
       <c r="A597" s="1">
         <v>42443</v>
       </c>
-      <c r="B597" s="2" t="s">
+      <c r="B597" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5704,7 +5702,7 @@
       <c r="A598" s="1">
         <v>42450</v>
       </c>
-      <c r="B598" s="2" t="s">
+      <c r="B598" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5712,7 +5710,7 @@
       <c r="A599" s="1">
         <v>42471</v>
       </c>
-      <c r="B599" s="2" t="s">
+      <c r="B599" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5720,7 +5718,7 @@
       <c r="A600" s="1">
         <v>42478</v>
       </c>
-      <c r="B600" s="2" t="s">
+      <c r="B600" s="3" t="s">
         <v>19</v>
       </c>
     </row>
@@ -5728,7 +5726,7 @@
       <c r="A601" s="1">
         <v>42492</v>
       </c>
-      <c r="B601" s="2" t="s">
+      <c r="B601" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5736,7 +5734,7 @@
       <c r="A602" s="1">
         <v>42499</v>
       </c>
-      <c r="B602" s="2" t="s">
+      <c r="B602" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -5744,7 +5742,7 @@
       <c r="A603" s="1">
         <v>42506</v>
       </c>
-      <c r="B603" s="2" t="s">
+      <c r="B603" s="3" t="s">
         <v>109</v>
       </c>
     </row>
@@ -5752,7 +5750,7 @@
       <c r="A604" s="1">
         <v>42513</v>
       </c>
-      <c r="B604" s="2" t="s">
+      <c r="B604" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -5760,7 +5758,7 @@
       <c r="A605" s="1">
         <v>42527</v>
       </c>
-      <c r="B605" s="2" t="s">
+      <c r="B605" s="3" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5768,7 +5766,7 @@
       <c r="A606" s="1">
         <v>42534</v>
       </c>
-      <c r="B606" s="2" t="s">
+      <c r="B606" s="3" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5776,7 +5774,7 @@
       <c r="A607" s="1">
         <v>42541</v>
       </c>
-      <c r="B607" s="2" t="s">
+      <c r="B607" s="3" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5784,7 +5782,7 @@
       <c r="A608" s="1">
         <v>42548</v>
       </c>
-      <c r="B608" s="2" t="s">
+      <c r="B608" s="3" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5792,7 +5790,7 @@
       <c r="A609" s="1">
         <v>42590</v>
       </c>
-      <c r="B609" s="2" t="s">
+      <c r="B609" s="3" t="s">
         <v>130</v>
       </c>
     </row>
@@ -5800,7 +5798,7 @@
       <c r="A610" s="1">
         <v>42597</v>
       </c>
-      <c r="B610" s="2" t="s">
+      <c r="B610" s="3" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5808,7 +5806,7 @@
       <c r="A611" s="1">
         <v>42604</v>
       </c>
-      <c r="B611" s="2" t="s">
+      <c r="B611" s="3" t="s">
         <v>132</v>
       </c>
     </row>
@@ -5816,7 +5814,7 @@
       <c r="A612" s="1">
         <v>42611</v>
       </c>
-      <c r="B612" s="2" t="s">
+      <c r="B612" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5824,7 +5822,7 @@
       <c r="A613" s="1">
         <v>42618</v>
       </c>
-      <c r="B613" s="2" t="s">
+      <c r="B613" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5832,7 +5830,7 @@
       <c r="A614" s="1">
         <v>42625</v>
       </c>
-      <c r="B614" s="2" t="s">
+      <c r="B614" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5840,7 +5838,7 @@
       <c r="A615" s="1">
         <v>42632</v>
       </c>
-      <c r="B615" s="2" t="s">
+      <c r="B615" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5848,7 +5846,7 @@
       <c r="A616" s="1">
         <v>42639</v>
       </c>
-      <c r="B616" s="2" t="s">
+      <c r="B616" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5856,7 +5854,7 @@
       <c r="A617" s="1">
         <v>42646</v>
       </c>
-      <c r="B617" s="2" t="s">
+      <c r="B617" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5864,7 +5862,7 @@
       <c r="A618" s="1">
         <v>42653</v>
       </c>
-      <c r="B618" s="2" t="s">
+      <c r="B618" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5872,7 +5870,7 @@
       <c r="A619" s="1">
         <v>42660</v>
       </c>
-      <c r="B619" s="2" t="s">
+      <c r="B619" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5880,7 +5878,7 @@
       <c r="A620" s="1">
         <v>42667</v>
       </c>
-      <c r="B620" s="2" t="s">
+      <c r="B620" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5888,7 +5886,7 @@
       <c r="A621" s="1">
         <v>42674</v>
       </c>
-      <c r="B621" s="2" t="s">
+      <c r="B621" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5896,7 +5894,7 @@
       <c r="A622" s="1">
         <v>42681</v>
       </c>
-      <c r="B622" s="2" t="s">
+      <c r="B622" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5904,7 +5902,7 @@
       <c r="A623" s="1">
         <v>42688</v>
       </c>
-      <c r="B623" s="2" t="s">
+      <c r="B623" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -5912,7 +5910,7 @@
       <c r="A624" s="1">
         <v>42695</v>
       </c>
-      <c r="B624" s="2" t="s">
+      <c r="B624" s="3" t="s">
         <v>129</v>
       </c>
     </row>
@@ -5920,7 +5918,7 @@
       <c r="A625" s="1">
         <v>42702</v>
       </c>
-      <c r="B625" s="2" t="s">
+      <c r="B625" s="3" t="s">
         <v>127</v>
       </c>
     </row>
@@ -5928,7 +5926,7 @@
       <c r="A626" s="1">
         <v>42709</v>
       </c>
-      <c r="B626" s="2" t="s">
+      <c r="B626" s="3" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5936,7 +5934,7 @@
       <c r="A627" s="1">
         <v>42716</v>
       </c>
-      <c r="B627" s="2" t="s">
+      <c r="B627" s="3" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5944,7 +5942,7 @@
       <c r="A628" s="1">
         <v>42723</v>
       </c>
-      <c r="B628" s="2" t="s">
+      <c r="B628" s="3" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5952,7 +5950,7 @@
       <c r="A629" s="1">
         <v>42730</v>
       </c>
-      <c r="B629" s="2" t="s">
+      <c r="B629" s="3" t="s">
         <v>131</v>
       </c>
     </row>
@@ -5960,7 +5958,7 @@
       <c r="A630" s="1">
         <v>42744</v>
       </c>
-      <c r="B630" s="2" t="s">
+      <c r="B630" s="3" t="s">
         <v>113</v>
       </c>
     </row>
@@ -5968,7 +5966,7 @@
       <c r="A631" s="1">
         <v>42751</v>
       </c>
-      <c r="B631" s="2" t="s">
+      <c r="B631" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5976,7 +5974,7 @@
       <c r="A632" s="1">
         <v>42758</v>
       </c>
-      <c r="B632" s="2" t="s">
+      <c r="B632" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5984,7 +5982,7 @@
       <c r="A633" s="1">
         <v>42765</v>
       </c>
-      <c r="B633" s="2" t="s">
+      <c r="B633" s="3" t="s">
         <v>133</v>
       </c>
     </row>
@@ -5992,7 +5990,7 @@
       <c r="A634" s="1">
         <v>42768</v>
       </c>
-      <c r="B634" s="2" t="s">
+      <c r="B634" s="3" t="s">
         <v>134</v>
       </c>
     </row>
@@ -6000,7 +5998,7 @@
       <c r="A635" s="1">
         <v>42772</v>
       </c>
-      <c r="B635" s="2" t="s">
+      <c r="B635" s="3" t="s">
         <v>135</v>
       </c>
     </row>
@@ -6008,7 +6006,7 @@
       <c r="A636" s="1">
         <v>42779</v>
       </c>
-      <c r="B636" s="2" t="s">
+      <c r="B636" s="3" t="s">
         <v>136</v>
       </c>
     </row>
@@ -6016,7 +6014,7 @@
       <c r="A637" s="1">
         <v>42800</v>
       </c>
-      <c r="B637" s="2" t="s">
+      <c r="B637" s="3" t="s">
         <v>130</v>
       </c>
     </row>
@@ -6024,7 +6022,7 @@
       <c r="A638" s="1">
         <v>42807</v>
       </c>
-      <c r="B638" s="2" t="s">
+      <c r="B638" s="3" t="s">
         <v>120</v>
       </c>
     </row>
@@ -6032,7 +6030,7 @@
       <c r="A639" s="1">
         <v>42828</v>
       </c>
-      <c r="B639" s="2" t="s">
+      <c r="B639" s="3" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6040,7 +6038,7 @@
       <c r="A640" s="1">
         <v>42842</v>
       </c>
-      <c r="B640" s="2" t="s">
+      <c r="B640" s="3" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6048,7 +6046,7 @@
       <c r="A641" s="1">
         <v>42849</v>
       </c>
-      <c r="B641" s="2" t="s">
+      <c r="B641" s="3" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6056,7 +6054,7 @@
       <c r="A642" s="1">
         <v>42857</v>
       </c>
-      <c r="B642" s="2" t="s">
+      <c r="B642" s="3" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6064,7 +6062,7 @@
       <c r="A643" s="1">
         <v>42863</v>
       </c>
-      <c r="B643" s="2" t="s">
+      <c r="B643" s="3" t="s">
         <v>112</v>
       </c>
     </row>
@@ -6072,7 +6070,7 @@
       <c r="A644" s="1">
         <v>42873</v>
       </c>
-      <c r="B644" s="2" t="s">
+      <c r="B644" s="3" t="s">
         <v>112</v>
       </c>
     </row>
@@ -6080,7 +6078,7 @@
       <c r="A645" s="1">
         <v>42887</v>
       </c>
-      <c r="B645" s="2" t="s">
+      <c r="B645" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -6088,7 +6086,7 @@
       <c r="A646" s="1">
         <v>42894</v>
       </c>
-      <c r="B646" s="2" t="s">
+      <c r="B646" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -6096,7 +6094,7 @@
       <c r="A647" s="1">
         <v>42900</v>
       </c>
-      <c r="B647" s="2" t="s">
+      <c r="B647" s="3" t="s">
         <v>110</v>
       </c>
     </row>
@@ -6104,7 +6102,7 @@
       <c r="A648" s="1">
         <v>42908</v>
       </c>
-      <c r="B648" s="2" t="s">
+      <c r="B648" s="3" t="s">
         <v>137</v>
       </c>
     </row>
@@ -6112,7 +6110,7 @@
       <c r="A649" s="1">
         <v>42943</v>
       </c>
-      <c r="B649" s="2" t="s">
+      <c r="B649" s="3" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6120,7 +6118,7 @@
       <c r="A650" s="1">
         <v>42950</v>
       </c>
-      <c r="B650" s="2" t="s">
+      <c r="B650" s="3" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6128,7 +6126,7 @@
       <c r="A651" s="1">
         <v>42960</v>
       </c>
-      <c r="B651" s="2" t="s">
+      <c r="B651" s="3" t="s">
         <v>102</v>
       </c>
     </row>
@@ -6136,7 +6134,7 @@
       <c r="A652" s="1">
         <v>42961</v>
       </c>
-      <c r="B652" s="2" t="s">
+      <c r="B652" s="3" t="s">
         <v>124</v>
       </c>
     </row>
@@ -6144,7 +6142,7 @@
       <c r="A653" s="1">
         <v>42967</v>
       </c>
-      <c r="B653" s="2" t="s">
+      <c r="B653" s="3" t="s">
         <v>138</v>
       </c>
     </row>
@@ -6152,7 +6150,7 @@
       <c r="A654" s="1">
         <v>42968</v>
       </c>
-      <c r="B654" s="2" t="s">
+      <c r="B654" s="3" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6160,7 +6158,7 @@
       <c r="A655" s="1">
         <v>42975</v>
       </c>
-      <c r="B655" s="2" t="s">
+      <c r="B655" s="3" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6168,7 +6166,7 @@
       <c r="A656" s="1">
         <v>42982</v>
       </c>
-      <c r="B656" s="2" t="s">
+      <c r="B656" s="3" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6176,7 +6174,7 @@
       <c r="A657" s="1">
         <v>42989</v>
       </c>
-      <c r="B657" s="2" t="s">
+      <c r="B657" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -6184,7 +6182,7 @@
       <c r="A658" s="1">
         <v>42996</v>
       </c>
-      <c r="B658" s="2" t="s">
+      <c r="B658" s="3" t="s">
         <v>129</v>
       </c>
     </row>
@@ -6192,7 +6190,7 @@
       <c r="A659" s="1">
         <v>43003</v>
       </c>
-      <c r="B659" s="2" t="s">
+      <c r="B659" s="3" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6200,7 +6198,7 @@
       <c r="A660" s="1">
         <v>43010</v>
       </c>
-      <c r="B660" s="2" t="s">
+      <c r="B660" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -6208,7 +6206,7 @@
       <c r="A661" s="1">
         <v>43017</v>
       </c>
-      <c r="B661" s="2" t="s">
+      <c r="B661" s="3" t="s">
         <v>114</v>
       </c>
     </row>
@@ -6216,7 +6214,7 @@
       <c r="A662" s="1">
         <v>43024</v>
       </c>
-      <c r="B662" s="2" t="s">
+      <c r="B662" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -6224,7 +6222,7 @@
       <c r="A663" s="1">
         <v>43031</v>
       </c>
-      <c r="B663" s="2" t="s">
+      <c r="B663" s="3" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6232,7 +6230,7 @@
       <c r="A664" s="1">
         <v>43038</v>
       </c>
-      <c r="B664" s="2" t="s">
+      <c r="B664" s="3" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6240,7 +6238,7 @@
       <c r="A665" s="1">
         <v>43045</v>
       </c>
-      <c r="B665" s="2" t="s">
+      <c r="B665" s="3" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6248,7 +6246,7 @@
       <c r="A666" s="1">
         <v>43052</v>
       </c>
-      <c r="B666" s="2" t="s">
+      <c r="B666" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -6256,7 +6254,7 @@
       <c r="A667" s="1">
         <v>43059</v>
       </c>
-      <c r="B667" s="2" t="s">
+      <c r="B667" s="3" t="s">
         <v>140</v>
       </c>
     </row>
@@ -6264,7 +6262,7 @@
       <c r="A668" s="1">
         <v>43066</v>
       </c>
-      <c r="B668" s="2" t="s">
+      <c r="B668" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -6272,7 +6270,7 @@
       <c r="A669" s="1">
         <v>43073</v>
       </c>
-      <c r="B669" s="2" t="s">
+      <c r="B669" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -6280,7 +6278,7 @@
       <c r="A670" s="1">
         <v>43080</v>
       </c>
-      <c r="B670" s="2" t="s">
+      <c r="B670" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -6288,7 +6286,7 @@
       <c r="A671" s="1">
         <v>43087</v>
       </c>
-      <c r="B671" s="2" t="s">
+      <c r="B671" s="3" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6296,7 +6294,7 @@
       <c r="A672" s="1">
         <v>43108</v>
       </c>
-      <c r="B672" s="2" t="s">
+      <c r="B672" s="3" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6304,7 +6302,7 @@
       <c r="A673" s="1">
         <v>43115</v>
       </c>
-      <c r="B673" s="2" t="s">
+      <c r="B673" s="3" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6312,7 +6310,7 @@
       <c r="A674" s="1">
         <v>43122</v>
       </c>
-      <c r="B674" s="2" t="s">
+      <c r="B674" s="3" t="s">
         <v>139</v>
       </c>
     </row>
@@ -6320,7 +6318,7 @@
       <c r="A675" s="1">
         <v>43129</v>
       </c>
-      <c r="B675" s="2" t="s">
+      <c r="B675" s="3" t="s">
         <v>142</v>
       </c>
     </row>
@@ -6328,7 +6326,7 @@
       <c r="A676" s="1">
         <v>43139</v>
       </c>
-      <c r="B676" s="2" t="s">
+      <c r="B676" s="3" t="s">
         <v>142</v>
       </c>
     </row>
@@ -6336,7 +6334,7 @@
       <c r="A677" s="1">
         <v>43146</v>
       </c>
-      <c r="B677" s="2" t="s">
+      <c r="B677" s="3" t="s">
         <v>142</v>
       </c>
     </row>
@@ -6344,7 +6342,7 @@
       <c r="A678" s="1">
         <v>43153</v>
       </c>
-      <c r="B678" s="2" t="s">
+      <c r="B678" s="3" t="s">
         <v>142</v>
       </c>
     </row>
@@ -6352,7 +6350,7 @@
       <c r="A679" s="1">
         <v>43160</v>
       </c>
-      <c r="B679" s="2" t="s">
+      <c r="B679" s="3" t="s">
         <v>81</v>
       </c>
     </row>
@@ -6360,7 +6358,7 @@
       <c r="A680" s="1">
         <v>43167</v>
       </c>
-      <c r="B680" s="2" t="s">
+      <c r="B680" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -6368,7 +6366,7 @@
       <c r="A681" s="1">
         <v>43174</v>
       </c>
-      <c r="B681" s="2" t="s">
+      <c r="B681" s="3" t="s">
         <v>99</v>
       </c>
     </row>
@@ -6376,7 +6374,7 @@
       <c r="A682" s="1">
         <v>43181</v>
       </c>
-      <c r="B682" s="2" t="s">
+      <c r="B682" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -6384,7 +6382,7 @@
       <c r="A683" s="1">
         <v>43188</v>
       </c>
-      <c r="B683" s="2" t="s">
+      <c r="B683" s="3" t="s">
         <v>143</v>
       </c>
     </row>
@@ -6392,7 +6390,7 @@
       <c r="A684" s="1">
         <v>43195</v>
       </c>
-      <c r="B684" s="2" t="s">
+      <c r="B684" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -6400,7 +6398,7 @@
       <c r="A685" s="1">
         <v>43202</v>
       </c>
-      <c r="B685" s="2" t="s">
+      <c r="B685" s="3" t="s">
         <v>99</v>
       </c>
     </row>
@@ -6408,7 +6406,7 @@
       <c r="A686" s="1">
         <v>43209</v>
       </c>
-      <c r="B686" s="2" t="s">
+      <c r="B686" s="3" t="s">
         <v>99</v>
       </c>
     </row>
@@ -6416,7 +6414,7 @@
       <c r="A687" s="1">
         <v>43216</v>
       </c>
-      <c r="B687" s="2" t="s">
+      <c r="B687" s="3" t="s">
         <v>99</v>
       </c>
     </row>
@@ -6424,7 +6422,7 @@
       <c r="A688" s="1">
         <v>43223</v>
       </c>
-      <c r="B688" s="2" t="s">
+      <c r="B688" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -6432,7 +6430,7 @@
       <c r="A689" s="1">
         <v>43230</v>
       </c>
-      <c r="B689" s="2" t="s">
+      <c r="B689" s="3" t="s">
         <v>99</v>
       </c>
     </row>
@@ -6440,7 +6438,7 @@
       <c r="A690" s="1">
         <v>43237</v>
       </c>
-      <c r="B690" s="2" t="s">
+      <c r="B690" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -6448,7 +6446,7 @@
       <c r="A691" s="1">
         <v>43243</v>
       </c>
-      <c r="B691" s="2" t="s">
+      <c r="B691" s="3" t="s">
         <v>91</v>
       </c>
     </row>
@@ -6456,7 +6454,7 @@
       <c r="A692" s="1">
         <v>43250</v>
       </c>
-      <c r="B692" s="2" t="s">
+      <c r="B692" s="3" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6464,7 +6462,7 @@
       <c r="A693" s="1">
         <v>43258</v>
       </c>
-      <c r="B693" s="2">
+      <c r="B693" s="3">
         <v>4</v>
       </c>
     </row>
@@ -6472,7 +6470,7 @@
       <c r="A694" s="1">
         <v>43265</v>
       </c>
-      <c r="B694" s="2">
+      <c r="B694" s="3">
         <v>4</v>
       </c>
     </row>
@@ -6480,7 +6478,7 @@
       <c r="A695" s="1">
         <v>43272</v>
       </c>
-      <c r="B695" s="2" t="s">
+      <c r="B695" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6488,7 +6486,7 @@
       <c r="A696" s="1">
         <v>43279</v>
       </c>
-      <c r="B696" s="2" t="s">
+      <c r="B696" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -6496,7 +6494,7 @@
       <c r="A697" s="1">
         <v>43286</v>
       </c>
-      <c r="B697" s="2" t="s">
+      <c r="B697" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -6504,7 +6502,7 @@
       <c r="A698" s="1">
         <v>43304</v>
       </c>
-      <c r="B698" s="2" t="s">
+      <c r="B698" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -6512,7 +6510,7 @@
       <c r="A699" s="1">
         <v>43307</v>
       </c>
-      <c r="B699" s="2" t="s">
+      <c r="B699" s="3" t="s">
         <v>99</v>
       </c>
     </row>
@@ -6520,7 +6518,7 @@
       <c r="A700" s="1">
         <v>43311</v>
       </c>
-      <c r="B700" s="2" t="s">
+      <c r="B700" s="3" t="s">
         <v>143</v>
       </c>
     </row>
@@ -6528,7 +6526,7 @@
       <c r="A701" s="1">
         <v>43314</v>
       </c>
-      <c r="B701" s="2" t="s">
+      <c r="B701" s="3" t="s">
         <v>99</v>
       </c>
     </row>
@@ -6536,7 +6534,7 @@
       <c r="A702" s="1">
         <v>43321</v>
       </c>
-      <c r="B702" s="2" t="s">
+      <c r="B702" s="3" t="s">
         <v>80</v>
       </c>
     </row>
@@ -6544,7 +6542,7 @@
       <c r="A703" s="1">
         <v>43328</v>
       </c>
-      <c r="B703" s="2" t="s">
+      <c r="B703" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6552,7 +6550,7 @@
       <c r="A704" s="1">
         <v>43335</v>
       </c>
-      <c r="B704" s="2" t="s">
+      <c r="B704" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6560,7 +6558,7 @@
       <c r="A705" s="1">
         <v>43342</v>
       </c>
-      <c r="B705" s="2" t="s">
+      <c r="B705" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6568,7 +6566,7 @@
       <c r="A706" s="1">
         <v>43343</v>
       </c>
-      <c r="B706" s="2" t="s">
+      <c r="B706" s="3" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6576,7 +6574,7 @@
       <c r="A707" s="1">
         <v>43349</v>
       </c>
-      <c r="B707" s="2" t="s">
+      <c r="B707" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -6584,7 +6582,7 @@
       <c r="A708" s="1">
         <v>43356</v>
       </c>
-      <c r="B708" s="2" t="s">
+      <c r="B708" s="3" t="s">
         <v>119</v>
       </c>
     </row>
@@ -6592,7 +6590,7 @@
       <c r="A709" s="1">
         <v>43363</v>
       </c>
-      <c r="B709" s="2" t="s">
+      <c r="B709" s="3" t="s">
         <v>137</v>
       </c>
     </row>
@@ -6600,7 +6598,7 @@
       <c r="A710" s="1">
         <v>43371</v>
       </c>
-      <c r="B710" s="2">
+      <c r="B710" s="3">
         <v>4</v>
       </c>
     </row>
@@ -6608,7 +6606,7 @@
       <c r="A711" s="1">
         <v>43377</v>
       </c>
-      <c r="B711" s="2">
+      <c r="B711" s="3">
         <v>4</v>
       </c>
     </row>
@@ -6616,7 +6614,7 @@
       <c r="A712" s="1">
         <v>43384</v>
       </c>
-      <c r="B712" s="2">
+      <c r="B712" s="3">
         <v>4</v>
       </c>
     </row>
@@ -6624,7 +6622,7 @@
       <c r="A713" s="1">
         <v>43391</v>
       </c>
-      <c r="B713" s="2">
+      <c r="B713" s="3">
         <v>4</v>
       </c>
     </row>
@@ -6632,7 +6630,7 @@
       <c r="A714" s="1">
         <v>43398</v>
       </c>
-      <c r="B714" s="2">
+      <c r="B714" s="3">
         <v>4</v>
       </c>
     </row>
@@ -6640,7 +6638,7 @@
       <c r="A715" s="1">
         <v>43405</v>
       </c>
-      <c r="B715" s="2">
+      <c r="B715" s="3">
         <v>4</v>
       </c>
     </row>
@@ -6648,7 +6646,7 @@
       <c r="A716" s="1">
         <v>43412</v>
       </c>
-      <c r="B716" s="2">
+      <c r="B716" s="3">
         <v>4</v>
       </c>
     </row>
@@ -6656,7 +6654,7 @@
       <c r="A717" s="1">
         <v>43418</v>
       </c>
-      <c r="B717" s="2" t="s">
+      <c r="B717" s="3" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6664,7 +6662,7 @@
       <c r="A718" s="1">
         <v>43426</v>
       </c>
-      <c r="B718" s="2" t="s">
+      <c r="B718" s="3" t="s">
         <v>141</v>
       </c>
     </row>
@@ -6712,7 +6710,7 @@
       <c r="A724" s="1">
         <v>43468</v>
       </c>
-      <c r="B724" s="2" t="s">
+      <c r="B724" s="3" t="s">
         <v>104</v>
       </c>
     </row>
@@ -6720,7 +6718,7 @@
       <c r="A725" s="1">
         <v>43475</v>
       </c>
-      <c r="B725" s="2" t="s">
+      <c r="B725" s="3" t="s">
         <v>104</v>
       </c>
     </row>
@@ -6728,7 +6726,7 @@
       <c r="A726" s="1">
         <v>43482</v>
       </c>
-      <c r="B726" s="2" t="s">
+      <c r="B726" s="3" t="s">
         <v>104</v>
       </c>
     </row>
@@ -6736,7 +6734,7 @@
       <c r="A727" s="1">
         <v>43489</v>
       </c>
-      <c r="B727" s="2" t="s">
+      <c r="B727" s="3" t="s">
         <v>106</v>
       </c>
     </row>
@@ -6744,7 +6742,7 @@
       <c r="A728" s="1">
         <v>43496</v>
       </c>
-      <c r="B728" s="2" t="s">
+      <c r="B728" s="3" t="s">
         <v>107</v>
       </c>
     </row>
@@ -6752,7 +6750,7 @@
       <c r="A729" s="1">
         <v>43503</v>
       </c>
-      <c r="B729" s="2" t="s">
+      <c r="B729" s="3" t="s">
         <v>101</v>
       </c>
     </row>
@@ -6760,7 +6758,7 @@
       <c r="A730" s="1">
         <v>43511</v>
       </c>
-      <c r="B730" s="2" t="s">
+      <c r="B730" s="3" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6768,7 +6766,7 @@
       <c r="A731" s="1">
         <v>43517</v>
       </c>
-      <c r="B731" s="2" t="s">
+      <c r="B731" s="3" t="s">
         <v>144</v>
       </c>
     </row>
@@ -6776,7 +6774,7 @@
       <c r="A732" s="1">
         <v>43524</v>
       </c>
-      <c r="B732" s="2" t="s">
+      <c r="B732" s="3" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6784,7 +6782,7 @@
       <c r="A733" s="1">
         <v>43531</v>
       </c>
-      <c r="B733" s="2" t="s">
+      <c r="B733" s="3" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6792,7 +6790,7 @@
       <c r="A734" s="1">
         <v>43538</v>
       </c>
-      <c r="B734" s="2" t="s">
+      <c r="B734" s="3" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6800,7 +6798,7 @@
       <c r="A735" s="1">
         <v>43545</v>
       </c>
-      <c r="B735" s="2" t="s">
+      <c r="B735" s="3" t="s">
         <v>113</v>
       </c>
     </row>
@@ -6808,7 +6806,7 @@
       <c r="A736" s="1">
         <v>43559</v>
       </c>
-      <c r="B736" s="2" t="s">
+      <c r="B736" s="3" t="s">
         <v>145</v>
       </c>
     </row>
@@ -6816,7 +6814,7 @@
       <c r="A737" s="1">
         <v>43566</v>
       </c>
-      <c r="B737" s="2" t="s">
+      <c r="B737" s="3" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6824,7 +6822,7 @@
       <c r="A738" s="1">
         <v>43573</v>
       </c>
-      <c r="B738" s="2" t="s">
+      <c r="B738" s="3" t="s">
         <v>111</v>
       </c>
     </row>
@@ -6832,7 +6830,7 @@
       <c r="A739" s="1">
         <v>43580</v>
       </c>
-      <c r="B739" s="2" t="s">
+      <c r="B739" s="3" t="s">
         <v>116</v>
       </c>
     </row>
@@ -6840,7 +6838,7 @@
       <c r="A740" s="1">
         <v>43587</v>
       </c>
-      <c r="B740" s="2" t="s">
+      <c r="B740" s="3" t="s">
         <v>145</v>
       </c>
     </row>
@@ -6848,7 +6846,7 @@
       <c r="A741" s="1">
         <v>43594</v>
       </c>
-      <c r="B741" s="2" t="s">
+      <c r="B741" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6856,7 +6854,7 @@
       <c r="A742" s="1">
         <v>43601</v>
       </c>
-      <c r="B742" s="2" t="s">
+      <c r="B742" s="3" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6864,7 +6862,7 @@
       <c r="A743" s="1">
         <v>43608</v>
       </c>
-      <c r="B743" s="2" t="s">
+      <c r="B743" s="3" t="s">
         <v>148</v>
       </c>
     </row>
@@ -6872,7 +6870,7 @@
       <c r="A744" s="1">
         <v>43615</v>
       </c>
-      <c r="B744" s="2" t="s">
+      <c r="B744" s="3" t="s">
         <v>148</v>
       </c>
     </row>
@@ -6880,7 +6878,7 @@
       <c r="A745" s="1">
         <v>43622</v>
       </c>
-      <c r="B745" s="2" t="s">
+      <c r="B745" s="3" t="s">
         <v>149</v>
       </c>
     </row>
@@ -6888,7 +6886,7 @@
       <c r="A746" s="1">
         <v>43629</v>
       </c>
-      <c r="B746" s="2" t="s">
+      <c r="B746" s="3" t="s">
         <v>150</v>
       </c>
     </row>
@@ -6896,7 +6894,7 @@
       <c r="A747" s="1">
         <v>43635</v>
       </c>
-      <c r="B747" s="2" t="s">
+      <c r="B747" s="3" t="s">
         <v>151</v>
       </c>
     </row>
@@ -6904,7 +6902,7 @@
       <c r="A748" s="1">
         <v>43643</v>
       </c>
-      <c r="B748" s="2" t="s">
+      <c r="B748" s="3" t="s">
         <v>152</v>
       </c>
     </row>
@@ -6912,7 +6910,7 @@
       <c r="A749" s="1">
         <v>43650</v>
       </c>
-      <c r="B749" s="2" t="s">
+      <c r="B749" s="3" t="s">
         <v>153</v>
       </c>
     </row>
@@ -6920,7 +6918,7 @@
       <c r="A750" s="1">
         <v>43657</v>
       </c>
-      <c r="B750" s="2" t="s">
+      <c r="B750" s="3" t="s">
         <v>154</v>
       </c>
     </row>
@@ -6928,7 +6926,7 @@
       <c r="A751" s="1">
         <v>43664</v>
       </c>
-      <c r="B751" s="2" t="s">
+      <c r="B751" s="3" t="s">
         <v>149</v>
       </c>
     </row>
@@ -6936,7 +6934,7 @@
       <c r="A752" s="1">
         <v>43671</v>
       </c>
-      <c r="B752" s="2" t="s">
+      <c r="B752" s="3" t="s">
         <v>155</v>
       </c>
     </row>
@@ -6944,7 +6942,7 @@
       <c r="A753" s="1">
         <v>43678</v>
       </c>
-      <c r="B753" s="2" t="s">
+      <c r="B753" s="3" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6952,7 +6950,7 @@
       <c r="A754" s="1">
         <v>43685</v>
       </c>
-      <c r="B754" s="2" t="s">
+      <c r="B754" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6960,7 +6958,7 @@
       <c r="A755" s="1">
         <v>43692</v>
       </c>
-      <c r="B755" s="2" t="s">
+      <c r="B755" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6968,7 +6966,7 @@
       <c r="A756" s="1">
         <v>43699</v>
       </c>
-      <c r="B756" s="2" t="s">
+      <c r="B756" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6976,7 +6974,7 @@
       <c r="A757" s="1">
         <v>43706</v>
       </c>
-      <c r="B757" s="2" t="s">
+      <c r="B757" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6984,7 +6982,7 @@
       <c r="A758" s="1">
         <v>43713</v>
       </c>
-      <c r="B758" s="2" t="s">
+      <c r="B758" s="3" t="s">
         <v>146</v>
       </c>
     </row>
@@ -6992,7 +6990,7 @@
       <c r="A759" s="1">
         <v>43720</v>
       </c>
-      <c r="B759" s="2" t="s">
+      <c r="B759" s="3" t="s">
         <v>148</v>
       </c>
     </row>
@@ -7000,7 +6998,7 @@
       <c r="A760" s="1">
         <v>43727</v>
       </c>
-      <c r="B760" s="2" t="s">
+      <c r="B760" s="3" t="s">
         <v>148</v>
       </c>
     </row>
@@ -7008,7 +7006,7 @@
       <c r="A761" s="1">
         <v>43734</v>
       </c>
-      <c r="B761" s="2" t="s">
+      <c r="B761" s="3" t="s">
         <v>148</v>
       </c>
     </row>
@@ -7016,7 +7014,7 @@
       <c r="A762" s="1">
         <v>43741</v>
       </c>
-      <c r="B762" s="2" t="s">
+      <c r="B762" s="3" t="s">
         <v>148</v>
       </c>
     </row>
@@ -7024,7 +7022,7 @@
       <c r="A763" s="1">
         <v>43748</v>
       </c>
-      <c r="B763" s="2" t="s">
+      <c r="B763" s="3" t="s">
         <v>156</v>
       </c>
     </row>
@@ -7032,7 +7030,7 @@
       <c r="A764" s="1">
         <v>43755</v>
       </c>
-      <c r="B764" s="2" t="s">
+      <c r="B764" s="3" t="s">
         <v>156</v>
       </c>
     </row>
@@ -7040,7 +7038,7 @@
       <c r="A765" s="1">
         <v>43762</v>
       </c>
-      <c r="B765" s="2" t="s">
+      <c r="B765" s="3" t="s">
         <v>157</v>
       </c>
     </row>
@@ -7048,7 +7046,7 @@
       <c r="A766" s="1">
         <v>43769</v>
       </c>
-      <c r="B766" s="2" t="s">
+      <c r="B766" s="3" t="s">
         <v>158</v>
       </c>
     </row>
@@ -7056,7 +7054,7 @@
       <c r="A767" s="1">
         <v>43776</v>
       </c>
-      <c r="B767" s="2" t="s">
+      <c r="B767" s="3" t="s">
         <v>159</v>
       </c>
     </row>
@@ -7064,7 +7062,7 @@
       <c r="A768" s="1">
         <v>43783</v>
       </c>
-      <c r="B768" s="2" t="s">
+      <c r="B768" s="3" t="s">
         <v>150</v>
       </c>
     </row>
@@ -7072,7 +7070,7 @@
       <c r="A769" s="1">
         <v>43790</v>
       </c>
-      <c r="B769" s="2" t="s">
+      <c r="B769" s="3" t="s">
         <v>160</v>
       </c>
     </row>
@@ -7080,7 +7078,7 @@
       <c r="A770" s="1">
         <v>43797</v>
       </c>
-      <c r="B770" s="2" t="s">
+      <c r="B770" s="3" t="s">
         <v>160</v>
       </c>
     </row>
@@ -7088,7 +7086,7 @@
       <c r="A771" s="1">
         <v>43804</v>
       </c>
-      <c r="B771" s="2" t="s">
+      <c r="B771" s="3" t="s">
         <v>161</v>
       </c>
     </row>
@@ -7096,7 +7094,7 @@
       <c r="A772" s="1">
         <v>43811</v>
       </c>
-      <c r="B772" s="2" t="s">
+      <c r="B772" s="3" t="s">
         <v>162</v>
       </c>
     </row>
@@ -7104,7 +7102,7 @@
       <c r="A773" s="1">
         <v>43818</v>
       </c>
-      <c r="B773" s="2" t="s">
+      <c r="B773" s="3" t="s">
         <v>163</v>
       </c>
     </row>
@@ -7112,7 +7110,7 @@
       <c r="A774" s="1">
         <v>43839</v>
       </c>
-      <c r="B774" s="2" t="s">
+      <c r="B774" s="3" t="s">
         <v>164</v>
       </c>
     </row>
@@ -7120,7 +7118,7 @@
       <c r="A775" s="1">
         <v>43846</v>
       </c>
-      <c r="B775" s="2" t="s">
+      <c r="B775" s="3" t="s">
         <v>165</v>
       </c>
     </row>
@@ -7128,7 +7126,7 @@
       <c r="A776" s="1">
         <v>43853</v>
       </c>
-      <c r="B776" s="2" t="s">
+      <c r="B776" s="3" t="s">
         <v>160</v>
       </c>
     </row>
@@ -7136,7 +7134,7 @@
       <c r="A777" s="1">
         <v>43860</v>
       </c>
-      <c r="B777" s="2" t="s">
+      <c r="B777" s="3" t="s">
         <v>159</v>
       </c>
     </row>
@@ -7144,7 +7142,7 @@
       <c r="A778" s="1">
         <v>43867</v>
       </c>
-      <c r="B778" s="2" t="s">
+      <c r="B778" s="3" t="s">
         <v>159</v>
       </c>
     </row>
@@ -7152,7 +7150,7 @@
       <c r="A779" s="1">
         <v>43874</v>
       </c>
-      <c r="B779" s="2" t="s">
+      <c r="B779" s="3" t="s">
         <v>154</v>
       </c>
     </row>
@@ -7160,7 +7158,7 @@
       <c r="A780" s="1">
         <v>43881</v>
       </c>
-      <c r="B780" s="2" t="s">
+      <c r="B780" s="3" t="s">
         <v>166</v>
       </c>
     </row>
@@ -7168,7 +7166,7 @@
       <c r="A781" s="1">
         <v>43888</v>
       </c>
-      <c r="B781" s="2" t="s">
+      <c r="B781" s="3" t="s">
         <v>154</v>
       </c>
     </row>
@@ -7176,15 +7174,15 @@
       <c r="A782" s="1">
         <v>43896</v>
       </c>
-      <c r="B782" s="2" t="s">
-        <v>167</v>
+      <c r="B782" s="3" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A783" s="1">
         <v>43902</v>
       </c>
-      <c r="B783" s="2" t="s">
+      <c r="B783" s="3" t="s">
         <v>151</v>
       </c>
     </row>
@@ -7192,16 +7190,16 @@
       <c r="A784" s="1">
         <v>43909</v>
       </c>
-      <c r="B784" s="2" t="s">
-        <v>168</v>
+      <c r="B784" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A785" s="1">
         <v>43916</v>
       </c>
-      <c r="B785" s="2" t="s">
-        <v>169</v>
+      <c r="B785" s="3" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
